--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Data Structure and Algo\Love Babbar Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EEB35E-732D-42C2-9EB8-3E0975FD82D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C30DBBA-046A-4B93-BBDA-4641556D2D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3124,7 +3124,7 @@
         <v>93</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="21">
@@ -3138,7 +3138,7 @@
         <v>94</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="21">
@@ -3152,7 +3152,7 @@
         <v>95</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
@@ -3161,6 +3161,9 @@
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="1:4" ht="21">
+      <c r="A101">
+        <v>1</v>
+      </c>
       <c r="B101" s="5" t="s">
         <v>96</v>
       </c>
@@ -3168,10 +3171,13 @@
         <v>97</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
+      <c r="A102">
+        <v>2</v>
+      </c>
       <c r="B102" s="5" t="s">
         <v>96</v>
       </c>
@@ -3179,10 +3185,13 @@
         <v>98</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
+      <c r="A103">
+        <v>3</v>
+      </c>
       <c r="B103" s="5" t="s">
         <v>96</v>
       </c>
@@ -3190,10 +3199,13 @@
         <v>99</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="21">
+      <c r="A104">
+        <v>4</v>
+      </c>
       <c r="B104" s="5" t="s">
         <v>96</v>
       </c>
@@ -3201,10 +3213,13 @@
         <v>100</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="21">
+      <c r="A105">
+        <v>5</v>
+      </c>
       <c r="B105" s="5" t="s">
         <v>96</v>
       </c>
@@ -3212,10 +3227,13 @@
         <v>101</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="21">
+      <c r="A106">
+        <v>6</v>
+      </c>
       <c r="B106" s="5" t="s">
         <v>96</v>
       </c>
@@ -3223,10 +3241,13 @@
         <v>102</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="21">
+      <c r="A107">
+        <v>7</v>
+      </c>
       <c r="B107" s="5" t="s">
         <v>96</v>
       </c>
@@ -3234,10 +3255,13 @@
         <v>103</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="21">
+      <c r="A108">
+        <v>8</v>
+      </c>
       <c r="B108" s="5" t="s">
         <v>96</v>
       </c>
@@ -3245,10 +3269,13 @@
         <v>104</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="21">
+      <c r="A109">
+        <v>9</v>
+      </c>
       <c r="B109" s="5" t="s">
         <v>96</v>
       </c>
@@ -3256,10 +3283,13 @@
         <v>105</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
+      <c r="A110">
+        <v>10</v>
+      </c>
       <c r="B110" s="5" t="s">
         <v>96</v>
       </c>
@@ -3267,10 +3297,13 @@
         <v>106</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="21">
+      <c r="A111">
+        <v>11</v>
+      </c>
       <c r="B111" s="5" t="s">
         <v>96</v>
       </c>
@@ -3278,10 +3311,13 @@
         <v>107</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="21">
+      <c r="A112">
+        <v>12</v>
+      </c>
       <c r="B112" s="5" t="s">
         <v>96</v>
       </c>
@@ -3289,10 +3325,13 @@
         <v>108</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="21">
+      <c r="A113">
+        <v>13</v>
+      </c>
       <c r="B113" s="5" t="s">
         <v>96</v>
       </c>
@@ -3300,10 +3339,13 @@
         <v>109</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="21">
+      <c r="A114">
+        <v>14</v>
+      </c>
       <c r="B114" s="5" t="s">
         <v>96</v>
       </c>
@@ -3311,10 +3353,13 @@
         <v>110</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="21">
+      <c r="A115">
+        <v>15</v>
+      </c>
       <c r="B115" s="5" t="s">
         <v>96</v>
       </c>
@@ -3322,10 +3367,13 @@
         <v>111</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="21">
+      <c r="A116">
+        <v>16</v>
+      </c>
       <c r="B116" s="5" t="s">
         <v>96</v>
       </c>
@@ -3336,7 +3384,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="2:4" ht="21">
+    <row r="117" spans="1:4" ht="21">
+      <c r="A117">
+        <v>17</v>
+      </c>
       <c r="B117" s="5" t="s">
         <v>96</v>
       </c>
@@ -3347,7 +3398,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="2:4" ht="21">
+    <row r="118" spans="1:4" ht="21">
+      <c r="A118">
+        <v>18</v>
+      </c>
       <c r="B118" s="5" t="s">
         <v>96</v>
       </c>
@@ -3358,7 +3412,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:4" ht="21">
+    <row r="119" spans="1:4" ht="21">
+      <c r="A119">
+        <v>19</v>
+      </c>
       <c r="B119" s="5" t="s">
         <v>96</v>
       </c>
@@ -3369,7 +3426,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="2:4" ht="21">
+    <row r="120" spans="1:4" ht="21">
+      <c r="A120">
+        <v>20</v>
+      </c>
       <c r="B120" s="5" t="s">
         <v>96</v>
       </c>
@@ -3380,7 +3440,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="2:4" ht="21">
+    <row r="121" spans="1:4" ht="21">
+      <c r="A121">
+        <v>21</v>
+      </c>
       <c r="B121" s="5" t="s">
         <v>96</v>
       </c>
@@ -3391,7 +3454,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="2:4" ht="21">
+    <row r="122" spans="1:4" ht="21">
+      <c r="A122">
+        <v>22</v>
+      </c>
       <c r="B122" s="5" t="s">
         <v>96</v>
       </c>
@@ -3402,7 +3468,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="2:4" ht="21">
+    <row r="123" spans="1:4" ht="21">
+      <c r="A123">
+        <v>23</v>
+      </c>
       <c r="B123" s="5" t="s">
         <v>96</v>
       </c>
@@ -3413,7 +3482,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="2:4" ht="21">
+    <row r="124" spans="1:4" ht="21">
+      <c r="A124">
+        <v>24</v>
+      </c>
       <c r="B124" s="5" t="s">
         <v>96</v>
       </c>
@@ -3424,7 +3496,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="2:4" ht="21">
+    <row r="125" spans="1:4" ht="21">
+      <c r="A125">
+        <v>25</v>
+      </c>
       <c r="B125" s="5" t="s">
         <v>96</v>
       </c>
@@ -3435,7 +3510,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="2:4" ht="21">
+    <row r="126" spans="1:4" ht="21">
+      <c r="A126">
+        <v>26</v>
+      </c>
       <c r="B126" s="5" t="s">
         <v>96</v>
       </c>
@@ -3446,7 +3524,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="2:4" ht="21">
+    <row r="127" spans="1:4" ht="21">
+      <c r="A127">
+        <v>27</v>
+      </c>
       <c r="B127" s="5" t="s">
         <v>96</v>
       </c>
@@ -3457,7 +3538,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="2:4" ht="21">
+    <row r="128" spans="1:4" ht="21">
+      <c r="A128">
+        <v>28</v>
+      </c>
       <c r="B128" s="5" t="s">
         <v>96</v>
       </c>
@@ -3468,7 +3552,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="2:4" ht="21">
+    <row r="129" spans="1:4" ht="21">
+      <c r="A129">
+        <v>29</v>
+      </c>
       <c r="B129" s="5" t="s">
         <v>96</v>
       </c>
@@ -3479,7 +3566,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="2:4" ht="21">
+    <row r="130" spans="1:4" ht="21">
+      <c r="A130">
+        <v>30</v>
+      </c>
       <c r="B130" s="5" t="s">
         <v>96</v>
       </c>
@@ -3490,7 +3580,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="2:4" ht="21">
+    <row r="131" spans="1:4" ht="21">
+      <c r="A131">
+        <v>31</v>
+      </c>
       <c r="B131" s="5" t="s">
         <v>96</v>
       </c>
@@ -3501,7 +3594,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="2:4" ht="21">
+    <row r="132" spans="1:4" ht="21">
+      <c r="A132">
+        <v>32</v>
+      </c>
       <c r="B132" s="5" t="s">
         <v>96</v>
       </c>
@@ -3512,7 +3608,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="2:4" ht="21">
+    <row r="133" spans="1:4" ht="21">
+      <c r="A133">
+        <v>33</v>
+      </c>
       <c r="B133" s="5" t="s">
         <v>96</v>
       </c>
@@ -3523,7 +3622,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="2:4" ht="21">
+    <row r="134" spans="1:4" ht="21">
+      <c r="A134">
+        <v>34</v>
+      </c>
       <c r="B134" s="5" t="s">
         <v>96</v>
       </c>
@@ -3534,7 +3636,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="2:4" ht="21">
+    <row r="135" spans="1:4" ht="21">
+      <c r="A135">
+        <v>35</v>
+      </c>
       <c r="B135" s="5" t="s">
         <v>96</v>
       </c>
@@ -3545,7 +3650,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="2:4" ht="21">
+    <row r="136" spans="1:4" ht="21">
+      <c r="A136">
+        <v>36</v>
+      </c>
       <c r="B136" s="5" t="s">
         <v>96</v>
       </c>
@@ -3556,11 +3664,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="2:4" ht="21">
+    <row r="138" spans="1:4" ht="21">
       <c r="C138" s="7"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="2:4" ht="21">
+    <row r="139" spans="1:4" ht="21">
       <c r="B139" s="8" t="s">
         <v>133</v>
       </c>
@@ -3571,7 +3679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="2:4" ht="21">
+    <row r="140" spans="1:4" ht="21">
       <c r="B140" s="8" t="s">
         <v>133</v>
       </c>
@@ -3582,7 +3690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:4" ht="21">
+    <row r="141" spans="1:4" ht="21">
       <c r="B141" s="8" t="s">
         <v>133</v>
       </c>
@@ -3593,7 +3701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="2:4" ht="21">
+    <row r="142" spans="1:4" ht="21">
       <c r="B142" s="8" t="s">
         <v>133</v>
       </c>
@@ -3604,7 +3712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="2:4" ht="21">
+    <row r="143" spans="1:4" ht="21">
       <c r="B143" s="8" t="s">
         <v>133</v>
       </c>
@@ -3615,7 +3723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="2:4" ht="21">
+    <row r="144" spans="1:4" ht="21">
       <c r="B144" s="8" t="s">
         <v>133</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Data Structure and Algo\Love Babbar Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C30DBBA-046A-4B93-BBDA-4641556D2D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6207075F-BAC1-4191-BFF0-549684417B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -426,9 +426,6 @@
     <t>Findthe inversion count</t>
   </si>
   <si>
-    <t>Implement Merge-sort in-place</t>
-  </si>
-  <si>
     <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
   </si>
   <si>
@@ -444,9 +441,6 @@
     <t>Write a program to Detect loop in a linked list.</t>
   </si>
   <si>
-    <t>Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
     <t>Find the starting point of the loop. </t>
   </si>
   <si>
@@ -1429,6 +1423,15 @@
   </si>
   <si>
     <t>Find the Union and Intersection of the two sorted arrays</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Implement Merge-sort in-place: Meger without extra space</t>
+  </si>
+  <si>
+    <t>Write a program to Remove loop in a linked list.</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1878,7 +1881,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -1906,7 +1909,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -1920,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -1934,7 +1937,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -1948,7 +1951,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -1962,7 +1965,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -1973,10 +1976,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
@@ -1990,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2004,7 +2007,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2018,7 +2021,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2032,7 +2035,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2046,7 +2049,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
@@ -2060,7 +2063,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2074,7 +2077,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
@@ -2088,7 +2091,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2102,7 +2105,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
@@ -2116,7 +2119,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2130,7 +2133,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2144,7 +2147,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
@@ -2158,7 +2161,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
@@ -2172,7 +2175,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">
@@ -2186,7 +2189,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2200,7 +2203,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2214,7 +2217,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">
@@ -2228,7 +2231,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
@@ -2242,7 +2245,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">
@@ -2256,7 +2259,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
@@ -2270,7 +2273,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21">
@@ -2284,7 +2287,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
@@ -2298,7 +2301,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
@@ -2312,7 +2315,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21">
@@ -2326,7 +2329,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21">
@@ -2340,7 +2343,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21">
@@ -2354,7 +2357,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21">
@@ -2368,7 +2371,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
@@ -2382,7 +2385,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="21">
@@ -2396,7 +2399,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="21">
@@ -2419,7 +2422,7 @@
         <v>42</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21">
@@ -2433,7 +2436,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
@@ -2447,7 +2450,7 @@
         <v>44</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
@@ -2461,7 +2464,7 @@
         <v>45</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21">
@@ -2475,7 +2478,7 @@
         <v>46</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="21">
@@ -2489,7 +2492,7 @@
         <v>47</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21">
@@ -2503,7 +2506,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -2517,7 +2520,7 @@
         <v>49</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="21">
@@ -2531,7 +2534,7 @@
         <v>50</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="21">
@@ -2545,7 +2548,7 @@
         <v>51</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21">
@@ -2564,7 +2567,7 @@
         <v>53</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -2578,7 +2581,7 @@
         <v>54</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -2592,7 +2595,7 @@
         <v>55</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="21">
@@ -2606,7 +2609,7 @@
         <v>56</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="21">
@@ -2620,7 +2623,7 @@
         <v>57</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21">
@@ -2634,7 +2637,7 @@
         <v>58</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21">
@@ -2648,7 +2651,7 @@
         <v>59</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21">
@@ -2662,7 +2665,7 @@
         <v>60</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="21">
@@ -2676,7 +2679,7 @@
         <v>61</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="21">
@@ -2690,7 +2693,7 @@
         <v>62</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="21">
@@ -2704,7 +2707,7 @@
         <v>63</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="21">
@@ -2718,7 +2721,7 @@
         <v>64</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="21">
@@ -2732,7 +2735,7 @@
         <v>65</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="21">
@@ -2746,7 +2749,7 @@
         <v>66</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="21">
@@ -2760,7 +2763,7 @@
         <v>67</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="21">
@@ -2774,7 +2777,7 @@
         <v>68</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="21">
@@ -2788,7 +2791,7 @@
         <v>69</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="21">
@@ -2802,7 +2805,7 @@
         <v>70</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="21">
@@ -2816,7 +2819,7 @@
         <v>71</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="21">
@@ -2830,7 +2833,7 @@
         <v>72</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="21">
@@ -2844,7 +2847,7 @@
         <v>73</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="21">
@@ -2858,7 +2861,7 @@
         <v>74</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="21">
@@ -2872,7 +2875,7 @@
         <v>75</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="21">
@@ -2886,7 +2889,7 @@
         <v>76</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="21">
@@ -2900,7 +2903,7 @@
         <v>77</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="21">
@@ -2914,7 +2917,7 @@
         <v>78</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="21">
@@ -2928,7 +2931,7 @@
         <v>79</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="21">
@@ -2942,7 +2945,7 @@
         <v>80</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="21">
@@ -2956,7 +2959,7 @@
         <v>81</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="21">
@@ -2970,7 +2973,7 @@
         <v>82</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="21">
@@ -2984,7 +2987,7 @@
         <v>83</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="21">
@@ -2998,7 +3001,7 @@
         <v>84</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="21">
@@ -3012,7 +3015,7 @@
         <v>85</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="21">
@@ -3026,7 +3029,7 @@
         <v>86</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="21">
@@ -3040,7 +3043,7 @@
         <v>87</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="21">
@@ -3054,7 +3057,7 @@
         <v>88</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="21">
@@ -3068,7 +3071,7 @@
         <v>89</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="21">
@@ -3082,7 +3085,7 @@
         <v>90</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="21">
@@ -3096,7 +3099,7 @@
         <v>91</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="21">
@@ -3110,7 +3113,7 @@
         <v>92</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="21">
@@ -3124,7 +3127,7 @@
         <v>93</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="21">
@@ -3138,7 +3141,7 @@
         <v>94</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="21">
@@ -3152,7 +3155,7 @@
         <v>95</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
@@ -3171,7 +3174,7 @@
         <v>97</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
@@ -3185,7 +3188,7 @@
         <v>98</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
@@ -3199,7 +3202,7 @@
         <v>99</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="21">
@@ -3213,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="21">
@@ -3227,7 +3230,7 @@
         <v>101</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="21">
@@ -3241,7 +3244,7 @@
         <v>102</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="21">
@@ -3255,7 +3258,7 @@
         <v>103</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="21">
@@ -3269,7 +3272,7 @@
         <v>104</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="21">
@@ -3283,7 +3286,7 @@
         <v>105</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
@@ -3297,7 +3300,7 @@
         <v>106</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="21">
@@ -3311,7 +3314,7 @@
         <v>107</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="21">
@@ -3325,7 +3328,7 @@
         <v>108</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="21">
@@ -3339,7 +3342,7 @@
         <v>109</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="21">
@@ -3353,7 +3356,7 @@
         <v>110</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="21">
@@ -3367,7 +3370,7 @@
         <v>111</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="21">
@@ -3381,7 +3384,7 @@
         <v>112</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="21">
@@ -3395,7 +3398,7 @@
         <v>113</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="21">
@@ -3409,7 +3412,7 @@
         <v>114</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="21">
@@ -3423,7 +3426,7 @@
         <v>115</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="21">
@@ -3437,7 +3440,7 @@
         <v>116</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="21">
@@ -3451,7 +3454,7 @@
         <v>117</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="21">
@@ -3465,7 +3468,7 @@
         <v>118</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="21">
@@ -3479,7 +3482,7 @@
         <v>119</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="21">
@@ -3493,7 +3496,7 @@
         <v>120</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="21">
@@ -3507,7 +3510,7 @@
         <v>121</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="21">
@@ -3521,7 +3524,7 @@
         <v>122</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="21">
@@ -3535,7 +3538,7 @@
         <v>123</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="21">
@@ -3549,7 +3552,7 @@
         <v>124</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="21">
@@ -3563,7 +3566,7 @@
         <v>125</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="21">
@@ -3577,7 +3580,7 @@
         <v>126</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="21">
@@ -3591,7 +3594,7 @@
         <v>127</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="21">
@@ -3605,7 +3608,7 @@
         <v>128</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="21">
@@ -3619,7 +3622,7 @@
         <v>129</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="21">
@@ -3633,7 +3636,7 @@
         <v>130</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
@@ -3644,10 +3647,10 @@
         <v>96</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>131</v>
+        <v>465</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
@@ -3658,10 +3661,10 @@
         <v>96</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
@@ -3669,411 +3672,519 @@
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="1:4" ht="21">
+      <c r="A139">
+        <v>1</v>
+      </c>
       <c r="B139" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="D139" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="21">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="21">
-      <c r="B140" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C140" s="6" t="s">
+      <c r="D140" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="21">
+      <c r="A141">
+        <v>3</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="21">
-      <c r="B141" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C141" s="6" t="s">
+      <c r="D141" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="21">
+      <c r="A142">
+        <v>4</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="21">
+      <c r="A143">
+        <v>5</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="21">
-      <c r="B142" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C142" s="6" t="s">
+      <c r="D143" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="21">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="21">
-      <c r="B143" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C143" s="6" t="s">
+      <c r="D144" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="21">
+      <c r="A145">
+        <v>7</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="21">
-      <c r="B144" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C144" s="6" t="s">
+      <c r="D145" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="21">
+      <c r="A146">
+        <v>8</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" ht="21">
-      <c r="B145" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C145" s="6" t="s">
+      <c r="D146" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="21">
+      <c r="A147">
+        <v>9</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" ht="21">
-      <c r="B146" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C146" s="6" t="s">
+      <c r="D147" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="21">
+      <c r="A148">
+        <v>10</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" ht="21">
-      <c r="B147" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C147" s="6" t="s">
+      <c r="D148" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="21">
+      <c r="A149">
+        <v>11</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" ht="21">
-      <c r="B148" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C148" s="6" t="s">
+      <c r="D149" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="21">
+      <c r="A150">
+        <v>12</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" ht="21">
-      <c r="B149" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C149" s="6" t="s">
+      <c r="D150" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="21">
+      <c r="A151">
+        <v>13</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" ht="21">
-      <c r="B150" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C150" s="6" t="s">
+      <c r="D151" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="21">
+      <c r="A152">
+        <v>14</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D150" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" ht="21">
-      <c r="B151" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C151" s="6" t="s">
+      <c r="D152" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="21">
+      <c r="A153">
+        <v>15</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" ht="21">
-      <c r="B152" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C152" s="6" t="s">
+      <c r="D153" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="21">
+      <c r="A154">
+        <v>16</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" ht="21">
-      <c r="B153" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C153" s="6" t="s">
+      <c r="D154" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="21">
+      <c r="A155">
+        <v>17</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" ht="21">
-      <c r="B154" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C154" s="6" t="s">
+      <c r="D155" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="21">
+      <c r="A156">
+        <v>18</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" ht="21">
-      <c r="B155" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C155" s="6" t="s">
+      <c r="D156" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="21">
+      <c r="A157">
+        <v>19</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" ht="21">
-      <c r="B156" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C156" s="6" t="s">
+      <c r="D157" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="21">
+      <c r="A158">
+        <v>20</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" ht="21">
-      <c r="B157" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C157" s="6" t="s">
+      <c r="D158" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="21">
+      <c r="A159">
+        <v>21</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" ht="21">
-      <c r="B158" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C158" s="6" t="s">
+      <c r="D159" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="21">
+      <c r="A160">
+        <v>22</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" ht="21">
-      <c r="B159" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C159" s="6" t="s">
+      <c r="D160" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="21">
+      <c r="A161">
+        <v>23</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" ht="21">
-      <c r="B160" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C160" s="6" t="s">
+      <c r="D161" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="21">
+      <c r="A162">
+        <v>24</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" ht="21">
-      <c r="B161" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C161" s="6" t="s">
+      <c r="D162" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="21">
+      <c r="A163">
+        <v>25</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C163" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" ht="21">
-      <c r="B162" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C162" s="6" t="s">
+      <c r="D163" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="21">
+      <c r="A164">
+        <v>26</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" ht="21">
-      <c r="B163" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C163" s="6" t="s">
+      <c r="D164" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="21">
+      <c r="A165">
+        <v>27</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" ht="21">
-      <c r="B164" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C164" s="7" t="s">
+      <c r="D165" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="21">
+      <c r="A166">
+        <v>28</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" ht="21">
-      <c r="B165" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C165" s="7" t="s">
+      <c r="D166" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="21">
+      <c r="A167">
+        <v>29</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" ht="21">
-      <c r="B166" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C166" s="6" t="s">
+      <c r="D167" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="21">
+      <c r="A168">
+        <v>30</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" ht="21">
-      <c r="B167" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C167" s="6" t="s">
+      <c r="D168" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="21">
+      <c r="A169">
+        <v>31</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" ht="21">
-      <c r="B168" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C168" s="6" t="s">
+      <c r="D169" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="21">
+      <c r="A170">
+        <v>32</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" ht="21">
-      <c r="B169" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C169" s="6" t="s">
+      <c r="D170" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="21">
+      <c r="A171">
+        <v>33</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C171" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" ht="21">
-      <c r="B170" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C170" s="6" t="s">
+      <c r="D171" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="21">
+      <c r="A172">
+        <v>34</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" ht="21">
-      <c r="B171" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C171" s="6" t="s">
+      <c r="D172" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="21">
+      <c r="A173">
+        <v>35</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C173" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" ht="21">
-      <c r="B172" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C172" s="6" t="s">
+      <c r="D173" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="21">
+      <c r="A174">
+        <v>36</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C174" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" ht="21">
-      <c r="B173" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" ht="21">
-      <c r="B174" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="D174" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" ht="21">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="21">
       <c r="C176" s="7"/>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" ht="21">
       <c r="B177" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>4</v>
@@ -4081,10 +4192,10 @@
     </row>
     <row r="178" spans="2:4" ht="21">
       <c r="B178" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>4</v>
@@ -4092,10 +4203,10 @@
     </row>
     <row r="179" spans="2:4" ht="21">
       <c r="B179" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>4</v>
@@ -4103,10 +4214,10 @@
     </row>
     <row r="180" spans="2:4" ht="21">
       <c r="B180" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>4</v>
@@ -4114,10 +4225,10 @@
     </row>
     <row r="181" spans="2:4" ht="21">
       <c r="B181" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>4</v>
@@ -4125,10 +4236,10 @@
     </row>
     <row r="182" spans="2:4" ht="21">
       <c r="B182" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>4</v>
@@ -4136,10 +4247,10 @@
     </row>
     <row r="183" spans="2:4" ht="21">
       <c r="B183" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>4</v>
@@ -4147,10 +4258,10 @@
     </row>
     <row r="184" spans="2:4" ht="21">
       <c r="B184" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>4</v>
@@ -4158,10 +4269,10 @@
     </row>
     <row r="185" spans="2:4" ht="21">
       <c r="B185" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>4</v>
@@ -4169,10 +4280,10 @@
     </row>
     <row r="186" spans="2:4" ht="21">
       <c r="B186" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>4</v>
@@ -4180,10 +4291,10 @@
     </row>
     <row r="187" spans="2:4" ht="21">
       <c r="B187" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>4</v>
@@ -4191,10 +4302,10 @@
     </row>
     <row r="188" spans="2:4" ht="21">
       <c r="B188" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>4</v>
@@ -4202,10 +4313,10 @@
     </row>
     <row r="189" spans="2:4" ht="21">
       <c r="B189" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>4</v>
@@ -4213,10 +4324,10 @@
     </row>
     <row r="190" spans="2:4" ht="21">
       <c r="B190" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>4</v>
@@ -4224,10 +4335,10 @@
     </row>
     <row r="191" spans="2:4" ht="21">
       <c r="B191" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>4</v>
@@ -4235,10 +4346,10 @@
     </row>
     <row r="192" spans="2:4" ht="21">
       <c r="B192" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>4</v>
@@ -4246,10 +4357,10 @@
     </row>
     <row r="193" spans="2:4" ht="21">
       <c r="B193" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>4</v>
@@ -4257,10 +4368,10 @@
     </row>
     <row r="194" spans="2:4" ht="21">
       <c r="B194" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>4</v>
@@ -4268,10 +4379,10 @@
     </row>
     <row r="195" spans="2:4" ht="21">
       <c r="B195" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>4</v>
@@ -4279,10 +4390,10 @@
     </row>
     <row r="196" spans="2:4" ht="21">
       <c r="B196" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>4</v>
@@ -4290,10 +4401,10 @@
     </row>
     <row r="197" spans="2:4" ht="21">
       <c r="B197" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>4</v>
@@ -4301,10 +4412,10 @@
     </row>
     <row r="198" spans="2:4" ht="21">
       <c r="B198" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>4</v>
@@ -4312,10 +4423,10 @@
     </row>
     <row r="199" spans="2:4" ht="21">
       <c r="B199" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>4</v>
@@ -4323,10 +4434,10 @@
     </row>
     <row r="200" spans="2:4" ht="21">
       <c r="B200" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>4</v>
@@ -4334,10 +4445,10 @@
     </row>
     <row r="201" spans="2:4" ht="21">
       <c r="B201" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>4</v>
@@ -4345,10 +4456,10 @@
     </row>
     <row r="202" spans="2:4" ht="21">
       <c r="B202" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>4</v>
@@ -4356,10 +4467,10 @@
     </row>
     <row r="203" spans="2:4" ht="21">
       <c r="B203" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>4</v>
@@ -4367,10 +4478,10 @@
     </row>
     <row r="204" spans="2:4" ht="21">
       <c r="B204" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>4</v>
@@ -4378,10 +4489,10 @@
     </row>
     <row r="205" spans="2:4" ht="21">
       <c r="B205" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>4</v>
@@ -4389,10 +4500,10 @@
     </row>
     <row r="206" spans="2:4" ht="21">
       <c r="B206" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>4</v>
@@ -4400,10 +4511,10 @@
     </row>
     <row r="207" spans="2:4" ht="21">
       <c r="B207" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>4</v>
@@ -4411,10 +4522,10 @@
     </row>
     <row r="208" spans="2:4" ht="21">
       <c r="B208" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>4</v>
@@ -4422,10 +4533,10 @@
     </row>
     <row r="209" spans="2:4" ht="21">
       <c r="B209" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>4</v>
@@ -4433,10 +4544,10 @@
     </row>
     <row r="210" spans="2:4" ht="21">
       <c r="B210" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>4</v>
@@ -4444,10 +4555,10 @@
     </row>
     <row r="211" spans="2:4" ht="21">
       <c r="B211" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>4</v>
@@ -4465,10 +4576,10 @@
     </row>
     <row r="214" spans="2:4" ht="21">
       <c r="B214" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>4</v>
@@ -4476,10 +4587,10 @@
     </row>
     <row r="215" spans="2:4" ht="21">
       <c r="B215" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>4</v>
@@ -4487,10 +4598,10 @@
     </row>
     <row r="216" spans="2:4" ht="21">
       <c r="B216" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>4</v>
@@ -4498,10 +4609,10 @@
     </row>
     <row r="217" spans="2:4" ht="21">
       <c r="B217" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>4</v>
@@ -4509,10 +4620,10 @@
     </row>
     <row r="218" spans="2:4" ht="21">
       <c r="B218" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>4</v>
@@ -4520,10 +4631,10 @@
     </row>
     <row r="219" spans="2:4" ht="21">
       <c r="B219" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>4</v>
@@ -4531,10 +4642,10 @@
     </row>
     <row r="220" spans="2:4" ht="21">
       <c r="B220" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>4</v>
@@ -4542,10 +4653,10 @@
     </row>
     <row r="221" spans="2:4" ht="21">
       <c r="B221" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>4</v>
@@ -4553,10 +4664,10 @@
     </row>
     <row r="222" spans="2:4" ht="21">
       <c r="B222" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>4</v>
@@ -4564,10 +4675,10 @@
     </row>
     <row r="223" spans="2:4" ht="21">
       <c r="B223" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>4</v>
@@ -4575,10 +4686,10 @@
     </row>
     <row r="224" spans="2:4" ht="21">
       <c r="B224" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>4</v>
@@ -4586,10 +4697,10 @@
     </row>
     <row r="225" spans="2:4" ht="21">
       <c r="B225" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>4</v>
@@ -4597,10 +4708,10 @@
     </row>
     <row r="226" spans="2:4" ht="21">
       <c r="B226" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>4</v>
@@ -4608,10 +4719,10 @@
     </row>
     <row r="227" spans="2:4" ht="21">
       <c r="B227" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>4</v>
@@ -4619,10 +4730,10 @@
     </row>
     <row r="228" spans="2:4" ht="21">
       <c r="B228" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>4</v>
@@ -4630,10 +4741,10 @@
     </row>
     <row r="229" spans="2:4" ht="21">
       <c r="B229" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>4</v>
@@ -4641,10 +4752,10 @@
     </row>
     <row r="230" spans="2:4" ht="21">
       <c r="B230" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>4</v>
@@ -4652,10 +4763,10 @@
     </row>
     <row r="231" spans="2:4" ht="21">
       <c r="B231" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>4</v>
@@ -4663,10 +4774,10 @@
     </row>
     <row r="232" spans="2:4" ht="21">
       <c r="B232" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>4</v>
@@ -4674,10 +4785,10 @@
     </row>
     <row r="233" spans="2:4" ht="21">
       <c r="B233" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>4</v>
@@ -4685,10 +4796,10 @@
     </row>
     <row r="234" spans="2:4" ht="21">
       <c r="B234" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>4</v>
@@ -4696,10 +4807,10 @@
     </row>
     <row r="235" spans="2:4" ht="21">
       <c r="B235" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>4</v>
@@ -4715,10 +4826,10 @@
     </row>
     <row r="238" spans="2:4" ht="21">
       <c r="B238" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>4</v>
@@ -4726,10 +4837,10 @@
     </row>
     <row r="239" spans="2:4" ht="21">
       <c r="B239" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C239" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>4</v>
@@ -4737,10 +4848,10 @@
     </row>
     <row r="240" spans="2:4" ht="21">
       <c r="B240" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>4</v>
@@ -4748,10 +4859,10 @@
     </row>
     <row r="241" spans="2:4" ht="21">
       <c r="B241" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>4</v>
@@ -4759,10 +4870,10 @@
     </row>
     <row r="242" spans="2:4" ht="21">
       <c r="B242" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>4</v>
@@ -4770,10 +4881,10 @@
     </row>
     <row r="243" spans="2:4" ht="21">
       <c r="B243" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>4</v>
@@ -4781,10 +4892,10 @@
     </row>
     <row r="244" spans="2:4" ht="21">
       <c r="B244" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>4</v>
@@ -4792,10 +4903,10 @@
     </row>
     <row r="245" spans="2:4" ht="21">
       <c r="B245" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>4</v>
@@ -4803,10 +4914,10 @@
     </row>
     <row r="246" spans="2:4" ht="21">
       <c r="B246" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>4</v>
@@ -4814,10 +4925,10 @@
     </row>
     <row r="247" spans="2:4" ht="21">
       <c r="B247" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>4</v>
@@ -4825,10 +4936,10 @@
     </row>
     <row r="248" spans="2:4" ht="21">
       <c r="B248" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>4</v>
@@ -4836,10 +4947,10 @@
     </row>
     <row r="249" spans="2:4" ht="21">
       <c r="B249" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>4</v>
@@ -4847,10 +4958,10 @@
     </row>
     <row r="250" spans="2:4" ht="21">
       <c r="B250" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>4</v>
@@ -4858,10 +4969,10 @@
     </row>
     <row r="251" spans="2:4" ht="21">
       <c r="B251" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>4</v>
@@ -4869,10 +4980,10 @@
     </row>
     <row r="252" spans="2:4" ht="21">
       <c r="B252" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>4</v>
@@ -4880,10 +4991,10 @@
     </row>
     <row r="253" spans="2:4" ht="21">
       <c r="B253" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>4</v>
@@ -4891,10 +5002,10 @@
     </row>
     <row r="254" spans="2:4" ht="21">
       <c r="B254" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>4</v>
@@ -4902,10 +5013,10 @@
     </row>
     <row r="255" spans="2:4" ht="21">
       <c r="B255" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>4</v>
@@ -4913,10 +5024,10 @@
     </row>
     <row r="256" spans="2:4" ht="21">
       <c r="B256" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>4</v>
@@ -4924,10 +5035,10 @@
     </row>
     <row r="257" spans="2:4" ht="21">
       <c r="B257" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>4</v>
@@ -4935,10 +5046,10 @@
     </row>
     <row r="258" spans="2:4" ht="21">
       <c r="B258" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>4</v>
@@ -4946,10 +5057,10 @@
     </row>
     <row r="259" spans="2:4" ht="21">
       <c r="B259" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>4</v>
@@ -4957,10 +5068,10 @@
     </row>
     <row r="260" spans="2:4" ht="21">
       <c r="B260" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>4</v>
@@ -4968,10 +5079,10 @@
     </row>
     <row r="261" spans="2:4" ht="21">
       <c r="B261" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>4</v>
@@ -4979,10 +5090,10 @@
     </row>
     <row r="262" spans="2:4" ht="21">
       <c r="B262" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>4</v>
@@ -4990,10 +5101,10 @@
     </row>
     <row r="263" spans="2:4" ht="21">
       <c r="B263" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>4</v>
@@ -5001,10 +5112,10 @@
     </row>
     <row r="264" spans="2:4" ht="21">
       <c r="B264" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>4</v>
@@ -5012,10 +5123,10 @@
     </row>
     <row r="265" spans="2:4" ht="21">
       <c r="B265" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>4</v>
@@ -5023,10 +5134,10 @@
     </row>
     <row r="266" spans="2:4" ht="21">
       <c r="B266" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>4</v>
@@ -5034,10 +5145,10 @@
     </row>
     <row r="267" spans="2:4" ht="21">
       <c r="B267" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>4</v>
@@ -5045,10 +5156,10 @@
     </row>
     <row r="268" spans="2:4" ht="21">
       <c r="B268" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>4</v>
@@ -5056,10 +5167,10 @@
     </row>
     <row r="269" spans="2:4" ht="21">
       <c r="B269" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>4</v>
@@ -5067,10 +5178,10 @@
     </row>
     <row r="270" spans="2:4" ht="21">
       <c r="B270" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>4</v>
@@ -5078,7 +5189,7 @@
     </row>
     <row r="271" spans="2:4" ht="21">
       <c r="B271" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>86</v>
@@ -5089,10 +5200,10 @@
     </row>
     <row r="272" spans="2:4" ht="21">
       <c r="B272" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>4</v>
@@ -5108,10 +5219,10 @@
     </row>
     <row r="275" spans="2:4" ht="21">
       <c r="B275" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>4</v>
@@ -5119,10 +5230,10 @@
     </row>
     <row r="276" spans="2:4" ht="21">
       <c r="B276" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C276" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>4</v>
@@ -5130,10 +5241,10 @@
     </row>
     <row r="277" spans="2:4" ht="21">
       <c r="B277" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>4</v>
@@ -5141,10 +5252,10 @@
     </row>
     <row r="278" spans="2:4" ht="21">
       <c r="B278" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>4</v>
@@ -5152,10 +5263,10 @@
     </row>
     <row r="279" spans="2:4" ht="21">
       <c r="B279" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>4</v>
@@ -5163,10 +5274,10 @@
     </row>
     <row r="280" spans="2:4" ht="21">
       <c r="B280" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>4</v>
@@ -5174,10 +5285,10 @@
     </row>
     <row r="281" spans="2:4" ht="21">
       <c r="B281" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>4</v>
@@ -5185,10 +5296,10 @@
     </row>
     <row r="282" spans="2:4" ht="21">
       <c r="B282" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>4</v>
@@ -5196,10 +5307,10 @@
     </row>
     <row r="283" spans="2:4" ht="21">
       <c r="B283" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>4</v>
@@ -5207,10 +5318,10 @@
     </row>
     <row r="284" spans="2:4" ht="21">
       <c r="B284" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>4</v>
@@ -5218,10 +5329,10 @@
     </row>
     <row r="285" spans="2:4" ht="21">
       <c r="B285" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>4</v>
@@ -5229,10 +5340,10 @@
     </row>
     <row r="286" spans="2:4" ht="21">
       <c r="B286" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>4</v>
@@ -5240,10 +5351,10 @@
     </row>
     <row r="287" spans="2:4" ht="21">
       <c r="B287" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>4</v>
@@ -5251,10 +5362,10 @@
     </row>
     <row r="288" spans="2:4" ht="21">
       <c r="B288" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>4</v>
@@ -5262,10 +5373,10 @@
     </row>
     <row r="289" spans="2:4" ht="21">
       <c r="B289" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>4</v>
@@ -5273,10 +5384,10 @@
     </row>
     <row r="290" spans="2:4" ht="21">
       <c r="B290" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>4</v>
@@ -5284,10 +5395,10 @@
     </row>
     <row r="291" spans="2:4" ht="21">
       <c r="B291" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>4</v>
@@ -5295,10 +5406,10 @@
     </row>
     <row r="292" spans="2:4" ht="21">
       <c r="B292" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>4</v>
@@ -5306,10 +5417,10 @@
     </row>
     <row r="293" spans="2:4" ht="21">
       <c r="B293" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>4</v>
@@ -5325,10 +5436,10 @@
     </row>
     <row r="296" spans="2:4" ht="21">
       <c r="B296" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>4</v>
@@ -5336,10 +5447,10 @@
     </row>
     <row r="297" spans="2:4" ht="21">
       <c r="B297" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C297" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="C297" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>4</v>
@@ -5347,10 +5458,10 @@
     </row>
     <row r="298" spans="2:4" ht="21">
       <c r="B298" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D298" s="4" t="s">
         <v>4</v>
@@ -5358,10 +5469,10 @@
     </row>
     <row r="299" spans="2:4" ht="21">
       <c r="B299" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>4</v>
@@ -5369,10 +5480,10 @@
     </row>
     <row r="300" spans="2:4" ht="21">
       <c r="B300" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>4</v>
@@ -5380,10 +5491,10 @@
     </row>
     <row r="301" spans="2:4" ht="21">
       <c r="B301" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>4</v>
@@ -5391,10 +5502,10 @@
     </row>
     <row r="302" spans="2:4" ht="21">
       <c r="B302" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>4</v>
@@ -5402,10 +5513,10 @@
     </row>
     <row r="303" spans="2:4" ht="21">
       <c r="B303" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>4</v>
@@ -5413,10 +5524,10 @@
     </row>
     <row r="304" spans="2:4" ht="21">
       <c r="B304" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>4</v>
@@ -5424,10 +5535,10 @@
     </row>
     <row r="305" spans="2:4" ht="21">
       <c r="B305" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>4</v>
@@ -5435,10 +5546,10 @@
     </row>
     <row r="306" spans="2:4" ht="21">
       <c r="B306" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>4</v>
@@ -5446,10 +5557,10 @@
     </row>
     <row r="307" spans="2:4" ht="21">
       <c r="B307" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>4</v>
@@ -5457,10 +5568,10 @@
     </row>
     <row r="308" spans="2:4" ht="21">
       <c r="B308" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>4</v>
@@ -5468,10 +5579,10 @@
     </row>
     <row r="309" spans="2:4" ht="21">
       <c r="B309" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>4</v>
@@ -5479,10 +5590,10 @@
     </row>
     <row r="310" spans="2:4" ht="21">
       <c r="B310" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>4</v>
@@ -5490,10 +5601,10 @@
     </row>
     <row r="311" spans="2:4" ht="21">
       <c r="B311" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>4</v>
@@ -5501,10 +5612,10 @@
     </row>
     <row r="312" spans="2:4" ht="21">
       <c r="B312" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>4</v>
@@ -5512,10 +5623,10 @@
     </row>
     <row r="313" spans="2:4" ht="21">
       <c r="B313" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>4</v>
@@ -5523,10 +5634,10 @@
     </row>
     <row r="314" spans="2:4" ht="21">
       <c r="B314" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>4</v>
@@ -5534,10 +5645,10 @@
     </row>
     <row r="315" spans="2:4" ht="21">
       <c r="B315" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>4</v>
@@ -5545,10 +5656,10 @@
     </row>
     <row r="316" spans="2:4" ht="21">
       <c r="B316" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>4</v>
@@ -5556,10 +5667,10 @@
     </row>
     <row r="317" spans="2:4" ht="21">
       <c r="B317" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>4</v>
@@ -5567,10 +5678,10 @@
     </row>
     <row r="318" spans="2:4" ht="21">
       <c r="B318" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>4</v>
@@ -5578,10 +5689,10 @@
     </row>
     <row r="319" spans="2:4" ht="21">
       <c r="B319" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>4</v>
@@ -5589,10 +5700,10 @@
     </row>
     <row r="320" spans="2:4" ht="21">
       <c r="B320" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>4</v>
@@ -5600,10 +5711,10 @@
     </row>
     <row r="321" spans="2:4" ht="21">
       <c r="B321" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>4</v>
@@ -5611,10 +5722,10 @@
     </row>
     <row r="322" spans="2:4" ht="21">
       <c r="B322" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>4</v>
@@ -5622,10 +5733,10 @@
     </row>
     <row r="323" spans="2:4" ht="21">
       <c r="B323" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>4</v>
@@ -5633,10 +5744,10 @@
     </row>
     <row r="324" spans="2:4" ht="21">
       <c r="B324" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>4</v>
@@ -5644,10 +5755,10 @@
     </row>
     <row r="325" spans="2:4" ht="21">
       <c r="B325" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>4</v>
@@ -5655,10 +5766,10 @@
     </row>
     <row r="326" spans="2:4" ht="21">
       <c r="B326" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>4</v>
@@ -5666,10 +5777,10 @@
     </row>
     <row r="327" spans="2:4" ht="21">
       <c r="B327" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>4</v>
@@ -5677,10 +5788,10 @@
     </row>
     <row r="328" spans="2:4" ht="21">
       <c r="B328" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>4</v>
@@ -5688,10 +5799,10 @@
     </row>
     <row r="329" spans="2:4" ht="21">
       <c r="B329" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>4</v>
@@ -5699,10 +5810,10 @@
     </row>
     <row r="330" spans="2:4" ht="21">
       <c r="B330" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>4</v>
@@ -5710,10 +5821,10 @@
     </row>
     <row r="331" spans="2:4" ht="21">
       <c r="B331" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>4</v>
@@ -5721,10 +5832,10 @@
     </row>
     <row r="332" spans="2:4" ht="21">
       <c r="B332" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>4</v>
@@ -5732,10 +5843,10 @@
     </row>
     <row r="333" spans="2:4" ht="21">
       <c r="B333" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>4</v>
@@ -5751,10 +5862,10 @@
     </row>
     <row r="336" spans="2:4" ht="21">
       <c r="B336" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>4</v>
@@ -5762,10 +5873,10 @@
     </row>
     <row r="337" spans="2:4" ht="21">
       <c r="B337" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C337" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="C337" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>4</v>
@@ -5773,10 +5884,10 @@
     </row>
     <row r="338" spans="2:4" ht="21">
       <c r="B338" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>4</v>
@@ -5784,10 +5895,10 @@
     </row>
     <row r="339" spans="2:4" ht="21">
       <c r="B339" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>4</v>
@@ -5795,10 +5906,10 @@
     </row>
     <row r="340" spans="2:4" ht="21">
       <c r="B340" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>4</v>
@@ -5806,10 +5917,10 @@
     </row>
     <row r="341" spans="2:4" ht="21">
       <c r="B341" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>4</v>
@@ -5817,10 +5928,10 @@
     </row>
     <row r="342" spans="2:4" ht="21">
       <c r="B342" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>4</v>
@@ -5828,10 +5939,10 @@
     </row>
     <row r="343" spans="2:4" ht="21">
       <c r="B343" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>4</v>
@@ -5839,10 +5950,10 @@
     </row>
     <row r="344" spans="2:4" ht="21">
       <c r="B344" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>4</v>
@@ -5850,10 +5961,10 @@
     </row>
     <row r="345" spans="2:4" ht="21">
       <c r="B345" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>4</v>
@@ -5861,10 +5972,10 @@
     </row>
     <row r="346" spans="2:4" ht="21">
       <c r="B346" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>4</v>
@@ -5872,10 +5983,10 @@
     </row>
     <row r="347" spans="2:4" ht="21">
       <c r="B347" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>4</v>
@@ -5883,10 +5994,10 @@
     </row>
     <row r="348" spans="2:4" ht="21">
       <c r="B348" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>4</v>
@@ -5894,10 +6005,10 @@
     </row>
     <row r="349" spans="2:4" ht="21">
       <c r="B349" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>4</v>
@@ -5905,10 +6016,10 @@
     </row>
     <row r="350" spans="2:4" ht="21">
       <c r="B350" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>4</v>
@@ -5916,10 +6027,10 @@
     </row>
     <row r="351" spans="2:4" ht="21">
       <c r="B351" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>4</v>
@@ -5927,10 +6038,10 @@
     </row>
     <row r="352" spans="2:4" ht="21">
       <c r="B352" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>4</v>
@@ -5938,10 +6049,10 @@
     </row>
     <row r="353" spans="2:4" ht="21">
       <c r="B353" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>4</v>
@@ -5957,10 +6068,10 @@
     </row>
     <row r="356" spans="2:4" ht="21">
       <c r="B356" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>4</v>
@@ -5968,10 +6079,10 @@
     </row>
     <row r="357" spans="2:4" ht="21">
       <c r="B357" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C357" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>4</v>
@@ -5979,10 +6090,10 @@
     </row>
     <row r="358" spans="2:4" ht="21">
       <c r="B358" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>4</v>
@@ -5990,10 +6101,10 @@
     </row>
     <row r="359" spans="2:4" ht="21">
       <c r="B359" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>4</v>
@@ -6001,10 +6112,10 @@
     </row>
     <row r="360" spans="2:4" ht="21">
       <c r="B360" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>4</v>
@@ -6012,10 +6123,10 @@
     </row>
     <row r="361" spans="2:4" ht="21">
       <c r="B361" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>4</v>
@@ -6023,10 +6134,10 @@
     </row>
     <row r="362" spans="2:4" ht="21">
       <c r="B362" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>4</v>
@@ -6034,10 +6145,10 @@
     </row>
     <row r="363" spans="2:4" ht="21">
       <c r="B363" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>4</v>
@@ -6045,10 +6156,10 @@
     </row>
     <row r="364" spans="2:4" ht="21">
       <c r="B364" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>4</v>
@@ -6056,10 +6167,10 @@
     </row>
     <row r="365" spans="2:4" ht="21">
       <c r="B365" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>4</v>
@@ -6067,10 +6178,10 @@
     </row>
     <row r="366" spans="2:4" ht="21">
       <c r="B366" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>4</v>
@@ -6078,10 +6189,10 @@
     </row>
     <row r="367" spans="2:4" ht="21">
       <c r="B367" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>4</v>
@@ -6089,10 +6200,10 @@
     </row>
     <row r="368" spans="2:4" ht="21">
       <c r="B368" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>4</v>
@@ -6100,10 +6211,10 @@
     </row>
     <row r="369" spans="2:4" ht="21">
       <c r="B369" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>4</v>
@@ -6111,10 +6222,10 @@
     </row>
     <row r="370" spans="2:4" ht="21">
       <c r="B370" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>4</v>
@@ -6122,10 +6233,10 @@
     </row>
     <row r="371" spans="2:4" ht="21">
       <c r="B371" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>4</v>
@@ -6133,10 +6244,10 @@
     </row>
     <row r="372" spans="2:4" ht="21">
       <c r="B372" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>4</v>
@@ -6144,10 +6255,10 @@
     </row>
     <row r="373" spans="2:4" ht="21">
       <c r="B373" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>4</v>
@@ -6155,10 +6266,10 @@
     </row>
     <row r="374" spans="2:4" ht="21">
       <c r="B374" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>4</v>
@@ -6166,10 +6277,10 @@
     </row>
     <row r="375" spans="2:4" ht="21">
       <c r="B375" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>4</v>
@@ -6177,10 +6288,10 @@
     </row>
     <row r="376" spans="2:4" ht="21">
       <c r="B376" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>4</v>
@@ -6188,10 +6299,10 @@
     </row>
     <row r="377" spans="2:4" ht="21">
       <c r="B377" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>4</v>
@@ -6199,10 +6310,10 @@
     </row>
     <row r="378" spans="2:4" ht="21">
       <c r="B378" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>4</v>
@@ -6210,10 +6321,10 @@
     </row>
     <row r="379" spans="2:4" ht="21">
       <c r="B379" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>4</v>
@@ -6221,10 +6332,10 @@
     </row>
     <row r="380" spans="2:4" ht="21">
       <c r="B380" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>4</v>
@@ -6232,10 +6343,10 @@
     </row>
     <row r="381" spans="2:4" ht="21">
       <c r="B381" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>4</v>
@@ -6243,10 +6354,10 @@
     </row>
     <row r="382" spans="2:4" ht="21">
       <c r="B382" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>4</v>
@@ -6254,10 +6365,10 @@
     </row>
     <row r="383" spans="2:4" ht="21">
       <c r="B383" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>4</v>
@@ -6265,10 +6376,10 @@
     </row>
     <row r="384" spans="2:4" ht="21">
       <c r="B384" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>4</v>
@@ -6276,10 +6387,10 @@
     </row>
     <row r="385" spans="2:4" ht="21">
       <c r="B385" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>4</v>
@@ -6287,10 +6398,10 @@
     </row>
     <row r="386" spans="2:4" ht="21">
       <c r="B386" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>4</v>
@@ -6298,10 +6409,10 @@
     </row>
     <row r="387" spans="2:4" ht="21">
       <c r="B387" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>4</v>
@@ -6309,10 +6420,10 @@
     </row>
     <row r="388" spans="2:4" ht="21">
       <c r="B388" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>4</v>
@@ -6320,10 +6431,10 @@
     </row>
     <row r="389" spans="2:4" ht="21">
       <c r="B389" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>4</v>
@@ -6331,10 +6442,10 @@
     </row>
     <row r="390" spans="2:4" ht="21">
       <c r="B390" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>4</v>
@@ -6342,10 +6453,10 @@
     </row>
     <row r="391" spans="2:4" ht="21">
       <c r="B391" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>4</v>
@@ -6353,10 +6464,10 @@
     </row>
     <row r="392" spans="2:4" ht="21">
       <c r="B392" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>4</v>
@@ -6364,10 +6475,10 @@
     </row>
     <row r="393" spans="2:4" ht="21">
       <c r="B393" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>4</v>
@@ -6375,10 +6486,10 @@
     </row>
     <row r="394" spans="2:4" ht="21">
       <c r="B394" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>4</v>
@@ -6386,10 +6497,10 @@
     </row>
     <row r="395" spans="2:4" ht="21">
       <c r="B395" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>4</v>
@@ -6397,10 +6508,10 @@
     </row>
     <row r="396" spans="2:4" ht="21">
       <c r="B396" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>4</v>
@@ -6408,10 +6519,10 @@
     </row>
     <row r="397" spans="2:4" ht="21">
       <c r="B397" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>4</v>
@@ -6419,10 +6530,10 @@
     </row>
     <row r="398" spans="2:4" ht="21">
       <c r="B398" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>4</v>
@@ -6430,10 +6541,10 @@
     </row>
     <row r="399" spans="2:4" ht="21">
       <c r="B399" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>4</v>
@@ -6449,10 +6560,10 @@
     </row>
     <row r="402" spans="2:4" ht="21">
       <c r="B402" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D402" s="4" t="s">
         <v>4</v>
@@ -6460,10 +6571,10 @@
     </row>
     <row r="403" spans="2:4" ht="21">
       <c r="B403" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C403" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="C403" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>4</v>
@@ -6471,10 +6582,10 @@
     </row>
     <row r="404" spans="2:4" ht="21">
       <c r="B404" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>4</v>
@@ -6482,7 +6593,7 @@
     </row>
     <row r="405" spans="2:4" ht="21">
       <c r="B405" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>88</v>
@@ -6493,10 +6604,10 @@
     </row>
     <row r="406" spans="2:4" ht="21">
       <c r="B406" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>4</v>
@@ -6504,10 +6615,10 @@
     </row>
     <row r="407" spans="2:4" ht="21">
       <c r="B407" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>4</v>
@@ -6523,10 +6634,10 @@
     </row>
     <row r="410" spans="2:4" ht="21">
       <c r="B410" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>4</v>
@@ -6534,10 +6645,10 @@
     </row>
     <row r="411" spans="2:4" ht="21">
       <c r="B411" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C411" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="C411" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>4</v>
@@ -6545,10 +6656,10 @@
     </row>
     <row r="412" spans="2:4" ht="21">
       <c r="B412" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>4</v>
@@ -6556,10 +6667,10 @@
     </row>
     <row r="413" spans="2:4" ht="21">
       <c r="B413" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>4</v>
@@ -6567,10 +6678,10 @@
     </row>
     <row r="414" spans="2:4" ht="21">
       <c r="B414" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>4</v>
@@ -6578,10 +6689,10 @@
     </row>
     <row r="415" spans="2:4" ht="21">
       <c r="B415" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>4</v>
@@ -6589,10 +6700,10 @@
     </row>
     <row r="416" spans="2:4" ht="21">
       <c r="B416" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>4</v>
@@ -6600,10 +6711,10 @@
     </row>
     <row r="417" spans="2:4" ht="21">
       <c r="B417" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>4</v>
@@ -6611,10 +6722,10 @@
     </row>
     <row r="418" spans="2:4" ht="21">
       <c r="B418" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>4</v>
@@ -6622,10 +6733,10 @@
     </row>
     <row r="419" spans="2:4" ht="21">
       <c r="B419" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>4</v>
@@ -6633,10 +6744,10 @@
     </row>
     <row r="420" spans="2:4" ht="21">
       <c r="B420" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>4</v>
@@ -6644,10 +6755,10 @@
     </row>
     <row r="421" spans="2:4" ht="21">
       <c r="B421" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>4</v>
@@ -6655,10 +6766,10 @@
     </row>
     <row r="422" spans="2:4" ht="21">
       <c r="B422" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>4</v>
@@ -6666,10 +6777,10 @@
     </row>
     <row r="423" spans="2:4" ht="21">
       <c r="B423" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>4</v>
@@ -6677,10 +6788,10 @@
     </row>
     <row r="424" spans="2:4" ht="21">
       <c r="B424" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>4</v>
@@ -6688,10 +6799,10 @@
     </row>
     <row r="425" spans="2:4" ht="21">
       <c r="B425" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>4</v>
@@ -6699,10 +6810,10 @@
     </row>
     <row r="426" spans="2:4" ht="21">
       <c r="B426" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>4</v>
@@ -6710,10 +6821,10 @@
     </row>
     <row r="427" spans="2:4" ht="21">
       <c r="B427" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>4</v>
@@ -6721,10 +6832,10 @@
     </row>
     <row r="428" spans="2:4" ht="21">
       <c r="B428" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>4</v>
@@ -6732,10 +6843,10 @@
     </row>
     <row r="429" spans="2:4" ht="21">
       <c r="B429" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>4</v>
@@ -6743,10 +6854,10 @@
     </row>
     <row r="430" spans="2:4" ht="21">
       <c r="B430" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>4</v>
@@ -6754,10 +6865,10 @@
     </row>
     <row r="431" spans="2:4" ht="21">
       <c r="B431" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>4</v>
@@ -6765,10 +6876,10 @@
     </row>
     <row r="432" spans="2:4" ht="21">
       <c r="B432" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>4</v>
@@ -6776,10 +6887,10 @@
     </row>
     <row r="433" spans="2:4" ht="21">
       <c r="B433" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>4</v>
@@ -6787,10 +6898,10 @@
     </row>
     <row r="434" spans="2:4" ht="21">
       <c r="B434" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D434" s="4" t="s">
         <v>4</v>
@@ -6798,10 +6909,10 @@
     </row>
     <row r="435" spans="2:4" ht="21">
       <c r="B435" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>4</v>
@@ -6809,10 +6920,10 @@
     </row>
     <row r="436" spans="2:4" ht="21">
       <c r="B436" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>4</v>
@@ -6820,10 +6931,10 @@
     </row>
     <row r="437" spans="2:4" ht="21">
       <c r="B437" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>4</v>
@@ -6831,10 +6942,10 @@
     </row>
     <row r="438" spans="2:4" ht="21">
       <c r="B438" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>4</v>
@@ -6842,10 +6953,10 @@
     </row>
     <row r="439" spans="2:4" ht="21">
       <c r="B439" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>4</v>
@@ -6853,10 +6964,10 @@
     </row>
     <row r="440" spans="2:4" ht="21">
       <c r="B440" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>4</v>
@@ -6864,10 +6975,10 @@
     </row>
     <row r="441" spans="2:4" ht="21">
       <c r="B441" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>4</v>
@@ -6875,10 +6986,10 @@
     </row>
     <row r="442" spans="2:4" ht="21">
       <c r="B442" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>4</v>
@@ -6886,10 +6997,10 @@
     </row>
     <row r="443" spans="2:4" ht="21">
       <c r="B443" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>4</v>
@@ -6897,10 +7008,10 @@
     </row>
     <row r="444" spans="2:4" ht="21">
       <c r="B444" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>4</v>
@@ -6908,10 +7019,10 @@
     </row>
     <row r="445" spans="2:4" ht="21">
       <c r="B445" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>4</v>
@@ -6919,10 +7030,10 @@
     </row>
     <row r="446" spans="2:4" ht="21">
       <c r="B446" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>4</v>
@@ -6930,10 +7041,10 @@
     </row>
     <row r="447" spans="2:4" ht="21">
       <c r="B447" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>4</v>
@@ -6941,10 +7052,10 @@
     </row>
     <row r="448" spans="2:4" ht="21">
       <c r="B448" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>4</v>
@@ -6952,10 +7063,10 @@
     </row>
     <row r="449" spans="2:4" ht="21">
       <c r="B449" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>4</v>
@@ -6963,10 +7074,10 @@
     </row>
     <row r="450" spans="2:4" ht="21">
       <c r="B450" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D450" s="4" t="s">
         <v>4</v>
@@ -6974,10 +7085,10 @@
     </row>
     <row r="451" spans="2:4" ht="21">
       <c r="B451" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>4</v>
@@ -6985,10 +7096,10 @@
     </row>
     <row r="452" spans="2:4" ht="21">
       <c r="B452" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>4</v>
@@ -6996,10 +7107,10 @@
     </row>
     <row r="453" spans="2:4" ht="21">
       <c r="B453" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>4</v>
@@ -7007,10 +7118,10 @@
     </row>
     <row r="454" spans="2:4" ht="21">
       <c r="B454" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>4</v>
@@ -7018,10 +7129,10 @@
     </row>
     <row r="455" spans="2:4" ht="21">
       <c r="B455" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>4</v>
@@ -7029,10 +7140,10 @@
     </row>
     <row r="456" spans="2:4" ht="21">
       <c r="B456" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>4</v>
@@ -7040,10 +7151,10 @@
     </row>
     <row r="457" spans="2:4" ht="21">
       <c r="B457" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>4</v>
@@ -7051,10 +7162,10 @@
     </row>
     <row r="458" spans="2:4" ht="21">
       <c r="B458" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>4</v>
@@ -7062,10 +7173,10 @@
     </row>
     <row r="459" spans="2:4" ht="21">
       <c r="B459" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>4</v>
@@ -7073,10 +7184,10 @@
     </row>
     <row r="460" spans="2:4" ht="21">
       <c r="B460" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>4</v>
@@ -7084,10 +7195,10 @@
     </row>
     <row r="461" spans="2:4" ht="21">
       <c r="B461" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>4</v>
@@ -7095,10 +7206,10 @@
     </row>
     <row r="462" spans="2:4" ht="21">
       <c r="B462" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>4</v>
@@ -7106,10 +7217,10 @@
     </row>
     <row r="463" spans="2:4" ht="21">
       <c r="B463" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D463" s="4" t="s">
         <v>4</v>
@@ -7117,10 +7228,10 @@
     </row>
     <row r="464" spans="2:4" ht="21">
       <c r="B464" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>4</v>
@@ -7128,10 +7239,10 @@
     </row>
     <row r="465" spans="2:4" ht="21">
       <c r="B465" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>4</v>
@@ -7139,10 +7250,10 @@
     </row>
     <row r="466" spans="2:4" ht="21">
       <c r="B466" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>4</v>
@@ -7150,10 +7261,10 @@
     </row>
     <row r="467" spans="2:4" ht="21">
       <c r="B467" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>4</v>
@@ -7161,10 +7272,10 @@
     </row>
     <row r="468" spans="2:4" ht="21">
       <c r="B468" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>4</v>
@@ -7172,10 +7283,10 @@
     </row>
     <row r="469" spans="2:4" ht="21">
       <c r="B469" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D469" s="4" t="s">
         <v>4</v>
@@ -7192,10 +7303,10 @@
     </row>
     <row r="472" spans="2:4" ht="21">
       <c r="B472" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D472" s="4" t="s">
         <v>4</v>
@@ -7203,10 +7314,10 @@
     </row>
     <row r="473" spans="2:4" ht="21">
       <c r="B473" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C473" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="C473" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>4</v>
@@ -7214,10 +7325,10 @@
     </row>
     <row r="474" spans="2:4" ht="21">
       <c r="B474" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>4</v>
@@ -7225,10 +7336,10 @@
     </row>
     <row r="475" spans="2:4" ht="21">
       <c r="B475" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>4</v>
@@ -7236,10 +7347,10 @@
     </row>
     <row r="476" spans="2:4" ht="21">
       <c r="B476" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>4</v>
@@ -7247,10 +7358,10 @@
     </row>
     <row r="477" spans="2:4" ht="21">
       <c r="B477" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>4</v>
@@ -7258,10 +7369,10 @@
     </row>
     <row r="478" spans="2:4" ht="21">
       <c r="B478" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>4</v>
@@ -7269,10 +7380,10 @@
     </row>
     <row r="479" spans="2:4" ht="21">
       <c r="B479" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D479" s="4" t="s">
         <v>4</v>
@@ -7280,10 +7391,10 @@
     </row>
     <row r="480" spans="2:4" ht="21">
       <c r="B480" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>4</v>
@@ -7291,10 +7402,10 @@
     </row>
     <row r="481" spans="2:4" ht="21">
       <c r="B481" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D481" s="4" t="s">
         <v>4</v>
@@ -7422,14 +7533,14 @@
     <hyperlink ref="C132" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
     <hyperlink ref="C133" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
     <hyperlink ref="C134" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="C135" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C135" r:id="rId121" display="Implement Merge-sort in-place" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
     <hyperlink ref="C136" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
     <hyperlink ref="C105" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
     <hyperlink ref="C112" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
     <hyperlink ref="C139" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
     <hyperlink ref="C140" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
     <hyperlink ref="C141" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="C142" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="C142" r:id="rId128" display="Write a program to Delete loop in a linked list." xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
     <hyperlink ref="C143" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
     <hyperlink ref="C144" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
     <hyperlink ref="C145" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
@@ -7748,8 +7859,10 @@
     <hyperlink ref="C480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="C356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="C2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="C164" r:id="rId447" xr:uid="{069CB36F-7CA7-44A0-981A-4D9A660F44B6}"/>
+    <hyperlink ref="C165" r:id="rId448" xr:uid="{6774EFA0-FB64-4A50-8402-E4AA8CBD14A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId447"/>
+  <pageSetup orientation="portrait" r:id="rId449"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Data Structure and Algo\Love Babbar Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6207075F-BAC1-4191-BFF0-549684417B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7154874-ED8B-4F3F-B751-33D5E27681D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -633,9 +633,6 @@
     <t>Find LCA in a Binary tree</t>
   </si>
   <si>
-    <t>Find distance between 2 nodes in a Binary tree</t>
-  </si>
-  <si>
     <t>Kth Ancestor of node in a Binary tree</t>
   </si>
   <si>
@@ -1432,6 +1429,9 @@
   </si>
   <si>
     <t>Write a program to Remove loop in a linked list.</t>
+  </si>
+  <si>
+    <t>inorder Traversal of a tree both using recursion and Iteration</t>
   </si>
 </sst>
 </file>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -1909,7 +1909,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -1923,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -1937,7 +1937,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -1951,7 +1951,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -1965,7 +1965,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -1976,10 +1976,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
@@ -1993,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2007,7 +2007,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2021,7 +2021,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2035,7 +2035,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2049,7 +2049,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
@@ -2063,7 +2063,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2077,7 +2077,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
@@ -2091,7 +2091,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2105,7 +2105,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
@@ -2119,7 +2119,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2133,7 +2133,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2147,7 +2147,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
@@ -2161,7 +2161,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
@@ -2175,7 +2175,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">
@@ -2189,7 +2189,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2203,7 +2203,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2217,7 +2217,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">
@@ -2231,7 +2231,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
@@ -2245,7 +2245,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">
@@ -2259,7 +2259,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
@@ -2273,7 +2273,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21">
@@ -2287,7 +2287,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
@@ -2301,7 +2301,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
@@ -2315,7 +2315,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21">
@@ -2329,7 +2329,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21">
@@ -2343,7 +2343,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21">
@@ -2357,7 +2357,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21">
@@ -2371,7 +2371,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
@@ -2385,7 +2385,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="21">
@@ -2399,7 +2399,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="21">
@@ -2422,7 +2422,7 @@
         <v>42</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21">
@@ -2436,7 +2436,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
@@ -2450,7 +2450,7 @@
         <v>44</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
@@ -2464,7 +2464,7 @@
         <v>45</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21">
@@ -2478,7 +2478,7 @@
         <v>46</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="21">
@@ -2492,7 +2492,7 @@
         <v>47</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21">
@@ -2506,7 +2506,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -2520,7 +2520,7 @@
         <v>49</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="21">
@@ -2534,7 +2534,7 @@
         <v>50</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="21">
@@ -2548,7 +2548,7 @@
         <v>51</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21">
@@ -2567,7 +2567,7 @@
         <v>53</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -2581,7 +2581,7 @@
         <v>54</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -2595,7 +2595,7 @@
         <v>55</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="21">
@@ -2609,7 +2609,7 @@
         <v>56</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="21">
@@ -2623,7 +2623,7 @@
         <v>57</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21">
@@ -2637,7 +2637,7 @@
         <v>58</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21">
@@ -2651,7 +2651,7 @@
         <v>59</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21">
@@ -2665,7 +2665,7 @@
         <v>60</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="21">
@@ -2679,7 +2679,7 @@
         <v>61</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="21">
@@ -2693,7 +2693,7 @@
         <v>62</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="21">
@@ -2707,7 +2707,7 @@
         <v>63</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="21">
@@ -2721,7 +2721,7 @@
         <v>64</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="21">
@@ -2735,7 +2735,7 @@
         <v>65</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="21">
@@ -2749,7 +2749,7 @@
         <v>66</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="21">
@@ -2763,7 +2763,7 @@
         <v>67</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="21">
@@ -2777,7 +2777,7 @@
         <v>68</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="21">
@@ -2791,7 +2791,7 @@
         <v>69</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="21">
@@ -2805,7 +2805,7 @@
         <v>70</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="21">
@@ -2819,7 +2819,7 @@
         <v>71</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="21">
@@ -2833,7 +2833,7 @@
         <v>72</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="21">
@@ -2847,7 +2847,7 @@
         <v>73</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="21">
@@ -2861,7 +2861,7 @@
         <v>74</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="21">
@@ -2875,7 +2875,7 @@
         <v>75</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="21">
@@ -2889,7 +2889,7 @@
         <v>76</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="21">
@@ -2903,7 +2903,7 @@
         <v>77</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="21">
@@ -2917,7 +2917,7 @@
         <v>78</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="21">
@@ -2931,7 +2931,7 @@
         <v>79</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="21">
@@ -2945,7 +2945,7 @@
         <v>80</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="21">
@@ -2959,7 +2959,7 @@
         <v>81</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="21">
@@ -2973,7 +2973,7 @@
         <v>82</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="21">
@@ -2987,7 +2987,7 @@
         <v>83</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="21">
@@ -3001,7 +3001,7 @@
         <v>84</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="21">
@@ -3015,7 +3015,7 @@
         <v>85</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="21">
@@ -3029,7 +3029,7 @@
         <v>86</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="21">
@@ -3043,7 +3043,7 @@
         <v>87</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="21">
@@ -3057,7 +3057,7 @@
         <v>88</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="21">
@@ -3071,7 +3071,7 @@
         <v>89</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="21">
@@ -3085,7 +3085,7 @@
         <v>90</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="21">
@@ -3099,7 +3099,7 @@
         <v>91</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="21">
@@ -3113,7 +3113,7 @@
         <v>92</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="21">
@@ -3127,7 +3127,7 @@
         <v>93</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="21">
@@ -3141,7 +3141,7 @@
         <v>94</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="21">
@@ -3155,7 +3155,7 @@
         <v>95</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
@@ -3174,7 +3174,7 @@
         <v>97</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
@@ -3188,7 +3188,7 @@
         <v>98</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
@@ -3202,7 +3202,7 @@
         <v>99</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="21">
@@ -3216,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="21">
@@ -3230,7 +3230,7 @@
         <v>101</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="21">
@@ -3244,7 +3244,7 @@
         <v>102</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="21">
@@ -3258,7 +3258,7 @@
         <v>103</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="21">
@@ -3272,7 +3272,7 @@
         <v>104</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="21">
@@ -3286,7 +3286,7 @@
         <v>105</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
@@ -3300,7 +3300,7 @@
         <v>106</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="21">
@@ -3314,7 +3314,7 @@
         <v>107</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="21">
@@ -3328,7 +3328,7 @@
         <v>108</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="21">
@@ -3342,7 +3342,7 @@
         <v>109</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="21">
@@ -3356,7 +3356,7 @@
         <v>110</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="21">
@@ -3370,7 +3370,7 @@
         <v>111</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="21">
@@ -3384,7 +3384,7 @@
         <v>112</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="21">
@@ -3398,7 +3398,7 @@
         <v>113</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="21">
@@ -3412,7 +3412,7 @@
         <v>114</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="21">
@@ -3426,7 +3426,7 @@
         <v>115</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="21">
@@ -3440,7 +3440,7 @@
         <v>116</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="21">
@@ -3454,7 +3454,7 @@
         <v>117</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="21">
@@ -3468,7 +3468,7 @@
         <v>118</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="21">
@@ -3482,7 +3482,7 @@
         <v>119</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="21">
@@ -3496,7 +3496,7 @@
         <v>120</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="21">
@@ -3510,7 +3510,7 @@
         <v>121</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="21">
@@ -3524,7 +3524,7 @@
         <v>122</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="21">
@@ -3538,7 +3538,7 @@
         <v>123</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="21">
@@ -3552,7 +3552,7 @@
         <v>124</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="21">
@@ -3566,7 +3566,7 @@
         <v>125</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="21">
@@ -3580,7 +3580,7 @@
         <v>126</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="21">
@@ -3594,7 +3594,7 @@
         <v>127</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="21">
@@ -3608,7 +3608,7 @@
         <v>128</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="21">
@@ -3622,7 +3622,7 @@
         <v>129</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="21">
@@ -3636,7 +3636,7 @@
         <v>130</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
@@ -3647,10 +3647,10 @@
         <v>96</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
@@ -3664,7 +3664,7 @@
         <v>131</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
@@ -3682,7 +3682,7 @@
         <v>133</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
@@ -3696,7 +3696,7 @@
         <v>134</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
@@ -3710,7 +3710,7 @@
         <v>135</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="21">
@@ -3721,10 +3721,10 @@
         <v>132</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="21">
@@ -3738,7 +3738,7 @@
         <v>136</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="21">
@@ -3752,7 +3752,7 @@
         <v>137</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="21">
@@ -3766,7 +3766,7 @@
         <v>138</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="21">
@@ -3780,7 +3780,7 @@
         <v>139</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="21">
@@ -3794,7 +3794,7 @@
         <v>140</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="21">
@@ -3808,7 +3808,7 @@
         <v>141</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="21">
@@ -3822,7 +3822,7 @@
         <v>142</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="21">
@@ -3836,7 +3836,7 @@
         <v>143</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="21">
@@ -3850,7 +3850,7 @@
         <v>144</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="21">
@@ -3864,7 +3864,7 @@
         <v>145</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="21">
@@ -3878,7 +3878,7 @@
         <v>146</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="21">
@@ -3892,7 +3892,7 @@
         <v>147</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="21">
@@ -3906,7 +3906,7 @@
         <v>148</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="21">
@@ -3920,7 +3920,7 @@
         <v>149</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="21">
@@ -3934,7 +3934,7 @@
         <v>150</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="21">
@@ -3948,7 +3948,7 @@
         <v>151</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="21">
@@ -3962,7 +3962,7 @@
         <v>152</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="21">
@@ -3976,7 +3976,7 @@
         <v>153</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
@@ -3990,7 +3990,7 @@
         <v>154</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="21">
@@ -4004,7 +4004,7 @@
         <v>155</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="21">
@@ -4018,7 +4018,7 @@
         <v>156</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="21">
@@ -4032,7 +4032,7 @@
         <v>157</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
@@ -4046,7 +4046,7 @@
         <v>158</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="21">
@@ -4060,7 +4060,7 @@
         <v>159</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="21">
@@ -4074,7 +4074,7 @@
         <v>160</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="21">
@@ -4088,7 +4088,7 @@
         <v>161</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="21">
@@ -4102,7 +4102,7 @@
         <v>162</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
@@ -4116,7 +4116,7 @@
         <v>163</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="21">
@@ -4130,7 +4130,7 @@
         <v>164</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
@@ -4144,7 +4144,7 @@
         <v>165</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
@@ -4158,7 +4158,7 @@
         <v>166</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
@@ -4172,14 +4172,17 @@
         <v>167</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21">
       <c r="C176" s="7"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="2:4" ht="21">
+    <row r="177" spans="1:4" ht="21">
+      <c r="A177">
+        <v>1</v>
+      </c>
       <c r="B177" s="5" t="s">
         <v>168</v>
       </c>
@@ -4187,10 +4190,13 @@
         <v>169</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="21">
+      <c r="A178">
+        <v>2</v>
+      </c>
       <c r="B178" s="5" t="s">
         <v>168</v>
       </c>
@@ -4198,10 +4204,13 @@
         <v>170</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="21">
+      <c r="A179">
+        <v>3</v>
+      </c>
       <c r="B179" s="5" t="s">
         <v>168</v>
       </c>
@@ -4209,10 +4218,13 @@
         <v>171</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="21">
+      <c r="A180">
+        <v>4</v>
+      </c>
       <c r="B180" s="5" t="s">
         <v>168</v>
       </c>
@@ -4220,10 +4232,13 @@
         <v>172</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="21">
+      <c r="A181">
+        <v>5</v>
+      </c>
       <c r="B181" s="5" t="s">
         <v>168</v>
       </c>
@@ -4231,10 +4246,13 @@
         <v>173</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="21">
+      <c r="A182">
+        <v>6</v>
+      </c>
       <c r="B182" s="5" t="s">
         <v>168</v>
       </c>
@@ -4242,10 +4260,13 @@
         <v>174</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="21">
+      <c r="A183">
+        <v>7</v>
+      </c>
       <c r="B183" s="5" t="s">
         <v>168</v>
       </c>
@@ -4253,10 +4274,13 @@
         <v>175</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="21">
+      <c r="A184">
+        <v>8</v>
+      </c>
       <c r="B184" s="5" t="s">
         <v>168</v>
       </c>
@@ -4264,10 +4288,13 @@
         <v>176</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="21">
+      <c r="A185">
+        <v>9</v>
+      </c>
       <c r="B185" s="5" t="s">
         <v>168</v>
       </c>
@@ -4275,10 +4302,13 @@
         <v>177</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="21">
+      <c r="A186">
+        <v>10</v>
+      </c>
       <c r="B186" s="5" t="s">
         <v>168</v>
       </c>
@@ -4286,10 +4316,13 @@
         <v>178</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="21">
+      <c r="A187">
+        <v>11</v>
+      </c>
       <c r="B187" s="5" t="s">
         <v>168</v>
       </c>
@@ -4297,10 +4330,13 @@
         <v>179</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="21">
+      <c r="A188">
+        <v>12</v>
+      </c>
       <c r="B188" s="5" t="s">
         <v>168</v>
       </c>
@@ -4308,10 +4344,13 @@
         <v>180</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="21">
+      <c r="A189">
+        <v>13</v>
+      </c>
       <c r="B189" s="5" t="s">
         <v>168</v>
       </c>
@@ -4319,10 +4358,13 @@
         <v>181</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="21">
+      <c r="A190">
+        <v>14</v>
+      </c>
       <c r="B190" s="5" t="s">
         <v>168</v>
       </c>
@@ -4330,10 +4372,13 @@
         <v>182</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="21">
+      <c r="A191">
+        <v>15</v>
+      </c>
       <c r="B191" s="5" t="s">
         <v>168</v>
       </c>
@@ -4341,10 +4386,13 @@
         <v>183</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="21">
+      <c r="A192">
+        <v>16</v>
+      </c>
       <c r="B192" s="5" t="s">
         <v>168</v>
       </c>
@@ -4352,10 +4400,13 @@
         <v>184</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="21">
+      <c r="A193">
+        <v>17</v>
+      </c>
       <c r="B193" s="5" t="s">
         <v>168</v>
       </c>
@@ -4363,10 +4414,13 @@
         <v>185</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="21">
+      <c r="A194">
+        <v>18</v>
+      </c>
       <c r="B194" s="5" t="s">
         <v>168</v>
       </c>
@@ -4374,10 +4428,13 @@
         <v>186</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="21">
+      <c r="A195">
+        <v>19</v>
+      </c>
       <c r="B195" s="5" t="s">
         <v>168</v>
       </c>
@@ -4385,10 +4442,13 @@
         <v>187</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="21">
+      <c r="A196">
+        <v>20</v>
+      </c>
       <c r="B196" s="5" t="s">
         <v>168</v>
       </c>
@@ -4396,10 +4456,13 @@
         <v>188</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="21">
+      <c r="A197">
+        <v>21</v>
+      </c>
       <c r="B197" s="5" t="s">
         <v>168</v>
       </c>
@@ -4407,10 +4470,13 @@
         <v>189</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="21">
+      <c r="A198">
+        <v>22</v>
+      </c>
       <c r="B198" s="5" t="s">
         <v>168</v>
       </c>
@@ -4418,10 +4484,13 @@
         <v>190</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="21">
+      <c r="A199">
+        <v>23</v>
+      </c>
       <c r="B199" s="5" t="s">
         <v>168</v>
       </c>
@@ -4429,10 +4498,13 @@
         <v>191</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="21">
+      <c r="A200">
+        <v>24</v>
+      </c>
       <c r="B200" s="5" t="s">
         <v>168</v>
       </c>
@@ -4440,10 +4512,13 @@
         <v>192</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="21">
+      <c r="A201">
+        <v>25</v>
+      </c>
       <c r="B201" s="5" t="s">
         <v>168</v>
       </c>
@@ -4451,10 +4526,13 @@
         <v>193</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="21">
+      <c r="A202">
+        <v>26</v>
+      </c>
       <c r="B202" s="5" t="s">
         <v>168</v>
       </c>
@@ -4462,10 +4540,13 @@
         <v>194</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="21">
+      <c r="A203">
+        <v>27</v>
+      </c>
       <c r="B203" s="5" t="s">
         <v>168</v>
       </c>
@@ -4473,10 +4554,13 @@
         <v>195</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="21">
+      <c r="A204">
+        <v>28</v>
+      </c>
       <c r="B204" s="5" t="s">
         <v>168</v>
       </c>
@@ -4484,10 +4568,13 @@
         <v>196</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="21">
+      <c r="A205">
+        <v>29</v>
+      </c>
       <c r="B205" s="5" t="s">
         <v>168</v>
       </c>
@@ -4495,10 +4582,13 @@
         <v>197</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="21">
+      <c r="A206">
+        <v>30</v>
+      </c>
       <c r="B206" s="5" t="s">
         <v>168</v>
       </c>
@@ -4506,10 +4596,13 @@
         <v>198</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="21">
+      <c r="A207">
+        <v>31</v>
+      </c>
       <c r="B207" s="5" t="s">
         <v>168</v>
       </c>
@@ -4517,179 +4610,191 @@
         <v>199</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="21">
+      <c r="A208">
+        <v>32</v>
+      </c>
       <c r="B208" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>200</v>
+        <v>466</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="21">
+      <c r="A209">
+        <v>33</v>
+      </c>
       <c r="B209" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="21">
+      <c r="A210">
+        <v>34</v>
+      </c>
       <c r="B210" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="21">
+      <c r="A211">
+        <v>35</v>
+      </c>
       <c r="B211" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="21">
       <c r="B212" s="8"/>
       <c r="C212" s="7"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="2:4" ht="21">
+    <row r="213" spans="1:4" ht="21">
       <c r="B213" s="8"/>
       <c r="C213" s="7"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="2:4" ht="21">
+    <row r="214" spans="1:4" ht="21">
       <c r="B214" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C214" s="6" t="s">
+      <c r="D214" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="21">
+      <c r="B215" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D214" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="2:4" ht="21">
-      <c r="B215" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C215" s="6" t="s">
+      <c r="D215" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="21">
+      <c r="B216" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D215" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="2:4" ht="21">
-      <c r="B216" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C216" s="6" t="s">
+      <c r="D216" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="21">
+      <c r="B217" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C217" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="2:4" ht="21">
-      <c r="B217" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C217" s="6" t="s">
+      <c r="D217" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="21">
+      <c r="B218" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C218" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D217" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4" ht="21">
-      <c r="B218" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C218" s="6" t="s">
+      <c r="D218" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="21">
+      <c r="B219" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C219" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D218" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4" ht="21">
-      <c r="B219" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C219" s="6" t="s">
+      <c r="D219" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="21">
+      <c r="B220" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C220" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D219" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4" ht="21">
-      <c r="B220" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C220" s="9" t="s">
+      <c r="D220" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="21">
+      <c r="B221" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C221" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D220" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4" ht="21">
-      <c r="B221" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C221" s="6" t="s">
+      <c r="D221" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="21">
+      <c r="B222" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C222" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D221" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4" ht="21">
-      <c r="B222" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C222" s="6" t="s">
+      <c r="D222" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="21">
+      <c r="B223" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C223" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D222" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4" ht="21">
-      <c r="B223" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C223" s="6" t="s">
+      <c r="D223" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="21">
+      <c r="B224" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4" ht="21">
-      <c r="B224" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>4</v>
@@ -4697,10 +4802,10 @@
     </row>
     <row r="225" spans="2:4" ht="21">
       <c r="B225" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>4</v>
@@ -4708,10 +4813,10 @@
     </row>
     <row r="226" spans="2:4" ht="21">
       <c r="B226" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>4</v>
@@ -4719,10 +4824,10 @@
     </row>
     <row r="227" spans="2:4" ht="21">
       <c r="B227" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>4</v>
@@ -4730,10 +4835,10 @@
     </row>
     <row r="228" spans="2:4" ht="21">
       <c r="B228" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>4</v>
@@ -4741,10 +4846,10 @@
     </row>
     <row r="229" spans="2:4" ht="21">
       <c r="B229" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>4</v>
@@ -4752,10 +4857,10 @@
     </row>
     <row r="230" spans="2:4" ht="21">
       <c r="B230" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>4</v>
@@ -4763,10 +4868,10 @@
     </row>
     <row r="231" spans="2:4" ht="21">
       <c r="B231" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>4</v>
@@ -4774,10 +4879,10 @@
     </row>
     <row r="232" spans="2:4" ht="21">
       <c r="B232" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>4</v>
@@ -4785,10 +4890,10 @@
     </row>
     <row r="233" spans="2:4" ht="21">
       <c r="B233" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>4</v>
@@ -4796,10 +4901,10 @@
     </row>
     <row r="234" spans="2:4" ht="21">
       <c r="B234" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>4</v>
@@ -4807,10 +4912,10 @@
     </row>
     <row r="235" spans="2:4" ht="21">
       <c r="B235" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>4</v>
@@ -4826,10 +4931,10 @@
     </row>
     <row r="238" spans="2:4" ht="21">
       <c r="B238" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C238" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>4</v>
@@ -4837,10 +4942,10 @@
     </row>
     <row r="239" spans="2:4" ht="21">
       <c r="B239" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>4</v>
@@ -4848,10 +4953,10 @@
     </row>
     <row r="240" spans="2:4" ht="21">
       <c r="B240" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>4</v>
@@ -4859,10 +4964,10 @@
     </row>
     <row r="241" spans="2:4" ht="21">
       <c r="B241" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>4</v>
@@ -4870,10 +4975,10 @@
     </row>
     <row r="242" spans="2:4" ht="21">
       <c r="B242" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>4</v>
@@ -4881,10 +4986,10 @@
     </row>
     <row r="243" spans="2:4" ht="21">
       <c r="B243" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>4</v>
@@ -4892,10 +4997,10 @@
     </row>
     <row r="244" spans="2:4" ht="21">
       <c r="B244" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>4</v>
@@ -4903,10 +5008,10 @@
     </row>
     <row r="245" spans="2:4" ht="21">
       <c r="B245" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>4</v>
@@ -4914,10 +5019,10 @@
     </row>
     <row r="246" spans="2:4" ht="21">
       <c r="B246" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>4</v>
@@ -4925,10 +5030,10 @@
     </row>
     <row r="247" spans="2:4" ht="21">
       <c r="B247" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>4</v>
@@ -4936,10 +5041,10 @@
     </row>
     <row r="248" spans="2:4" ht="21">
       <c r="B248" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>4</v>
@@ -4947,10 +5052,10 @@
     </row>
     <row r="249" spans="2:4" ht="21">
       <c r="B249" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>4</v>
@@ -4958,10 +5063,10 @@
     </row>
     <row r="250" spans="2:4" ht="21">
       <c r="B250" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>4</v>
@@ -4969,10 +5074,10 @@
     </row>
     <row r="251" spans="2:4" ht="21">
       <c r="B251" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>4</v>
@@ -4980,10 +5085,10 @@
     </row>
     <row r="252" spans="2:4" ht="21">
       <c r="B252" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>4</v>
@@ -4991,10 +5096,10 @@
     </row>
     <row r="253" spans="2:4" ht="21">
       <c r="B253" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>4</v>
@@ -5002,10 +5107,10 @@
     </row>
     <row r="254" spans="2:4" ht="21">
       <c r="B254" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>4</v>
@@ -5013,10 +5118,10 @@
     </row>
     <row r="255" spans="2:4" ht="21">
       <c r="B255" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>4</v>
@@ -5024,10 +5129,10 @@
     </row>
     <row r="256" spans="2:4" ht="21">
       <c r="B256" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>4</v>
@@ -5035,10 +5140,10 @@
     </row>
     <row r="257" spans="2:4" ht="21">
       <c r="B257" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>4</v>
@@ -5046,10 +5151,10 @@
     </row>
     <row r="258" spans="2:4" ht="21">
       <c r="B258" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>4</v>
@@ -5057,10 +5162,10 @@
     </row>
     <row r="259" spans="2:4" ht="21">
       <c r="B259" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>4</v>
@@ -5068,10 +5173,10 @@
     </row>
     <row r="260" spans="2:4" ht="21">
       <c r="B260" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>4</v>
@@ -5079,10 +5184,10 @@
     </row>
     <row r="261" spans="2:4" ht="21">
       <c r="B261" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>4</v>
@@ -5090,10 +5195,10 @@
     </row>
     <row r="262" spans="2:4" ht="21">
       <c r="B262" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>4</v>
@@ -5101,10 +5206,10 @@
     </row>
     <row r="263" spans="2:4" ht="21">
       <c r="B263" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>4</v>
@@ -5112,10 +5217,10 @@
     </row>
     <row r="264" spans="2:4" ht="21">
       <c r="B264" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>4</v>
@@ -5123,10 +5228,10 @@
     </row>
     <row r="265" spans="2:4" ht="21">
       <c r="B265" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>4</v>
@@ -5134,10 +5239,10 @@
     </row>
     <row r="266" spans="2:4" ht="21">
       <c r="B266" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>4</v>
@@ -5145,10 +5250,10 @@
     </row>
     <row r="267" spans="2:4" ht="21">
       <c r="B267" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>4</v>
@@ -5156,10 +5261,10 @@
     </row>
     <row r="268" spans="2:4" ht="21">
       <c r="B268" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>4</v>
@@ -5167,10 +5272,10 @@
     </row>
     <row r="269" spans="2:4" ht="21">
       <c r="B269" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>4</v>
@@ -5178,10 +5283,10 @@
     </row>
     <row r="270" spans="2:4" ht="21">
       <c r="B270" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>4</v>
@@ -5189,7 +5294,7 @@
     </row>
     <row r="271" spans="2:4" ht="21">
       <c r="B271" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>86</v>
@@ -5200,10 +5305,10 @@
     </row>
     <row r="272" spans="2:4" ht="21">
       <c r="B272" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>4</v>
@@ -5219,10 +5324,10 @@
     </row>
     <row r="275" spans="2:4" ht="21">
       <c r="B275" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>4</v>
@@ -5230,10 +5335,10 @@
     </row>
     <row r="276" spans="2:4" ht="21">
       <c r="B276" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>4</v>
@@ -5241,10 +5346,10 @@
     </row>
     <row r="277" spans="2:4" ht="21">
       <c r="B277" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>4</v>
@@ -5252,10 +5357,10 @@
     </row>
     <row r="278" spans="2:4" ht="21">
       <c r="B278" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>4</v>
@@ -5263,10 +5368,10 @@
     </row>
     <row r="279" spans="2:4" ht="21">
       <c r="B279" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>4</v>
@@ -5274,10 +5379,10 @@
     </row>
     <row r="280" spans="2:4" ht="21">
       <c r="B280" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>4</v>
@@ -5285,10 +5390,10 @@
     </row>
     <row r="281" spans="2:4" ht="21">
       <c r="B281" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>4</v>
@@ -5296,10 +5401,10 @@
     </row>
     <row r="282" spans="2:4" ht="21">
       <c r="B282" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>4</v>
@@ -5307,10 +5412,10 @@
     </row>
     <row r="283" spans="2:4" ht="21">
       <c r="B283" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>4</v>
@@ -5318,10 +5423,10 @@
     </row>
     <row r="284" spans="2:4" ht="21">
       <c r="B284" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>4</v>
@@ -5329,10 +5434,10 @@
     </row>
     <row r="285" spans="2:4" ht="21">
       <c r="B285" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>4</v>
@@ -5340,10 +5445,10 @@
     </row>
     <row r="286" spans="2:4" ht="21">
       <c r="B286" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>4</v>
@@ -5351,10 +5456,10 @@
     </row>
     <row r="287" spans="2:4" ht="21">
       <c r="B287" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>4</v>
@@ -5362,10 +5467,10 @@
     </row>
     <row r="288" spans="2:4" ht="21">
       <c r="B288" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>4</v>
@@ -5373,10 +5478,10 @@
     </row>
     <row r="289" spans="2:4" ht="21">
       <c r="B289" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>4</v>
@@ -5384,10 +5489,10 @@
     </row>
     <row r="290" spans="2:4" ht="21">
       <c r="B290" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>4</v>
@@ -5395,10 +5500,10 @@
     </row>
     <row r="291" spans="2:4" ht="21">
       <c r="B291" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>4</v>
@@ -5406,10 +5511,10 @@
     </row>
     <row r="292" spans="2:4" ht="21">
       <c r="B292" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>4</v>
@@ -5417,10 +5522,10 @@
     </row>
     <row r="293" spans="2:4" ht="21">
       <c r="B293" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>4</v>
@@ -5436,10 +5541,10 @@
     </row>
     <row r="296" spans="2:4" ht="21">
       <c r="B296" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C296" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>4</v>
@@ -5447,10 +5552,10 @@
     </row>
     <row r="297" spans="2:4" ht="21">
       <c r="B297" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>4</v>
@@ -5458,10 +5563,10 @@
     </row>
     <row r="298" spans="2:4" ht="21">
       <c r="B298" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D298" s="4" t="s">
         <v>4</v>
@@ -5469,10 +5574,10 @@
     </row>
     <row r="299" spans="2:4" ht="21">
       <c r="B299" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>4</v>
@@ -5480,10 +5585,10 @@
     </row>
     <row r="300" spans="2:4" ht="21">
       <c r="B300" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>4</v>
@@ -5491,10 +5596,10 @@
     </row>
     <row r="301" spans="2:4" ht="21">
       <c r="B301" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>4</v>
@@ -5502,10 +5607,10 @@
     </row>
     <row r="302" spans="2:4" ht="21">
       <c r="B302" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>4</v>
@@ -5513,10 +5618,10 @@
     </row>
     <row r="303" spans="2:4" ht="21">
       <c r="B303" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>4</v>
@@ -5524,10 +5629,10 @@
     </row>
     <row r="304" spans="2:4" ht="21">
       <c r="B304" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>4</v>
@@ -5535,10 +5640,10 @@
     </row>
     <row r="305" spans="2:4" ht="21">
       <c r="B305" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>4</v>
@@ -5546,10 +5651,10 @@
     </row>
     <row r="306" spans="2:4" ht="21">
       <c r="B306" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>4</v>
@@ -5557,10 +5662,10 @@
     </row>
     <row r="307" spans="2:4" ht="21">
       <c r="B307" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>4</v>
@@ -5568,10 +5673,10 @@
     </row>
     <row r="308" spans="2:4" ht="21">
       <c r="B308" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>4</v>
@@ -5579,10 +5684,10 @@
     </row>
     <row r="309" spans="2:4" ht="21">
       <c r="B309" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>4</v>
@@ -5590,10 +5695,10 @@
     </row>
     <row r="310" spans="2:4" ht="21">
       <c r="B310" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>4</v>
@@ -5601,10 +5706,10 @@
     </row>
     <row r="311" spans="2:4" ht="21">
       <c r="B311" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>4</v>
@@ -5612,10 +5717,10 @@
     </row>
     <row r="312" spans="2:4" ht="21">
       <c r="B312" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>4</v>
@@ -5623,10 +5728,10 @@
     </row>
     <row r="313" spans="2:4" ht="21">
       <c r="B313" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>4</v>
@@ -5634,10 +5739,10 @@
     </row>
     <row r="314" spans="2:4" ht="21">
       <c r="B314" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>4</v>
@@ -5645,10 +5750,10 @@
     </row>
     <row r="315" spans="2:4" ht="21">
       <c r="B315" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>4</v>
@@ -5656,10 +5761,10 @@
     </row>
     <row r="316" spans="2:4" ht="21">
       <c r="B316" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>4</v>
@@ -5667,10 +5772,10 @@
     </row>
     <row r="317" spans="2:4" ht="21">
       <c r="B317" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>4</v>
@@ -5678,10 +5783,10 @@
     </row>
     <row r="318" spans="2:4" ht="21">
       <c r="B318" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>4</v>
@@ -5689,10 +5794,10 @@
     </row>
     <row r="319" spans="2:4" ht="21">
       <c r="B319" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>4</v>
@@ -5700,10 +5805,10 @@
     </row>
     <row r="320" spans="2:4" ht="21">
       <c r="B320" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>4</v>
@@ -5711,10 +5816,10 @@
     </row>
     <row r="321" spans="2:4" ht="21">
       <c r="B321" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>4</v>
@@ -5722,10 +5827,10 @@
     </row>
     <row r="322" spans="2:4" ht="21">
       <c r="B322" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>4</v>
@@ -5733,10 +5838,10 @@
     </row>
     <row r="323" spans="2:4" ht="21">
       <c r="B323" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>4</v>
@@ -5744,10 +5849,10 @@
     </row>
     <row r="324" spans="2:4" ht="21">
       <c r="B324" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>4</v>
@@ -5755,10 +5860,10 @@
     </row>
     <row r="325" spans="2:4" ht="21">
       <c r="B325" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>4</v>
@@ -5766,10 +5871,10 @@
     </row>
     <row r="326" spans="2:4" ht="21">
       <c r="B326" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>4</v>
@@ -5777,10 +5882,10 @@
     </row>
     <row r="327" spans="2:4" ht="21">
       <c r="B327" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>4</v>
@@ -5788,10 +5893,10 @@
     </row>
     <row r="328" spans="2:4" ht="21">
       <c r="B328" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>4</v>
@@ -5799,10 +5904,10 @@
     </row>
     <row r="329" spans="2:4" ht="21">
       <c r="B329" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>4</v>
@@ -5810,10 +5915,10 @@
     </row>
     <row r="330" spans="2:4" ht="21">
       <c r="B330" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>4</v>
@@ -5821,10 +5926,10 @@
     </row>
     <row r="331" spans="2:4" ht="21">
       <c r="B331" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>4</v>
@@ -5832,10 +5937,10 @@
     </row>
     <row r="332" spans="2:4" ht="21">
       <c r="B332" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>4</v>
@@ -5843,10 +5948,10 @@
     </row>
     <row r="333" spans="2:4" ht="21">
       <c r="B333" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>4</v>
@@ -5862,10 +5967,10 @@
     </row>
     <row r="336" spans="2:4" ht="21">
       <c r="B336" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C336" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>4</v>
@@ -5873,10 +5978,10 @@
     </row>
     <row r="337" spans="2:4" ht="21">
       <c r="B337" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>4</v>
@@ -5884,10 +5989,10 @@
     </row>
     <row r="338" spans="2:4" ht="21">
       <c r="B338" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>4</v>
@@ -5895,10 +6000,10 @@
     </row>
     <row r="339" spans="2:4" ht="21">
       <c r="B339" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>4</v>
@@ -5906,10 +6011,10 @@
     </row>
     <row r="340" spans="2:4" ht="21">
       <c r="B340" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>4</v>
@@ -5917,10 +6022,10 @@
     </row>
     <row r="341" spans="2:4" ht="21">
       <c r="B341" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>4</v>
@@ -5928,10 +6033,10 @@
     </row>
     <row r="342" spans="2:4" ht="21">
       <c r="B342" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>4</v>
@@ -5939,10 +6044,10 @@
     </row>
     <row r="343" spans="2:4" ht="21">
       <c r="B343" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>4</v>
@@ -5950,10 +6055,10 @@
     </row>
     <row r="344" spans="2:4" ht="21">
       <c r="B344" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>4</v>
@@ -5961,10 +6066,10 @@
     </row>
     <row r="345" spans="2:4" ht="21">
       <c r="B345" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>4</v>
@@ -5972,10 +6077,10 @@
     </row>
     <row r="346" spans="2:4" ht="21">
       <c r="B346" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>4</v>
@@ -5983,10 +6088,10 @@
     </row>
     <row r="347" spans="2:4" ht="21">
       <c r="B347" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>4</v>
@@ -5994,10 +6099,10 @@
     </row>
     <row r="348" spans="2:4" ht="21">
       <c r="B348" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>4</v>
@@ -6005,10 +6110,10 @@
     </row>
     <row r="349" spans="2:4" ht="21">
       <c r="B349" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>4</v>
@@ -6016,10 +6121,10 @@
     </row>
     <row r="350" spans="2:4" ht="21">
       <c r="B350" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>4</v>
@@ -6027,10 +6132,10 @@
     </row>
     <row r="351" spans="2:4" ht="21">
       <c r="B351" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>4</v>
@@ -6038,10 +6143,10 @@
     </row>
     <row r="352" spans="2:4" ht="21">
       <c r="B352" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>4</v>
@@ -6049,10 +6154,10 @@
     </row>
     <row r="353" spans="2:4" ht="21">
       <c r="B353" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>4</v>
@@ -6068,10 +6173,10 @@
     </row>
     <row r="356" spans="2:4" ht="21">
       <c r="B356" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C356" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>4</v>
@@ -6079,10 +6184,10 @@
     </row>
     <row r="357" spans="2:4" ht="21">
       <c r="B357" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>4</v>
@@ -6090,10 +6195,10 @@
     </row>
     <row r="358" spans="2:4" ht="21">
       <c r="B358" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>4</v>
@@ -6101,10 +6206,10 @@
     </row>
     <row r="359" spans="2:4" ht="21">
       <c r="B359" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>4</v>
@@ -6112,10 +6217,10 @@
     </row>
     <row r="360" spans="2:4" ht="21">
       <c r="B360" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>4</v>
@@ -6123,10 +6228,10 @@
     </row>
     <row r="361" spans="2:4" ht="21">
       <c r="B361" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>4</v>
@@ -6134,10 +6239,10 @@
     </row>
     <row r="362" spans="2:4" ht="21">
       <c r="B362" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>4</v>
@@ -6145,10 +6250,10 @@
     </row>
     <row r="363" spans="2:4" ht="21">
       <c r="B363" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>4</v>
@@ -6156,10 +6261,10 @@
     </row>
     <row r="364" spans="2:4" ht="21">
       <c r="B364" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>4</v>
@@ -6167,10 +6272,10 @@
     </row>
     <row r="365" spans="2:4" ht="21">
       <c r="B365" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>4</v>
@@ -6178,10 +6283,10 @@
     </row>
     <row r="366" spans="2:4" ht="21">
       <c r="B366" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>4</v>
@@ -6189,10 +6294,10 @@
     </row>
     <row r="367" spans="2:4" ht="21">
       <c r="B367" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>4</v>
@@ -6200,10 +6305,10 @@
     </row>
     <row r="368" spans="2:4" ht="21">
       <c r="B368" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>4</v>
@@ -6211,10 +6316,10 @@
     </row>
     <row r="369" spans="2:4" ht="21">
       <c r="B369" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>4</v>
@@ -6222,10 +6327,10 @@
     </row>
     <row r="370" spans="2:4" ht="21">
       <c r="B370" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>4</v>
@@ -6233,10 +6338,10 @@
     </row>
     <row r="371" spans="2:4" ht="21">
       <c r="B371" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>4</v>
@@ -6244,10 +6349,10 @@
     </row>
     <row r="372" spans="2:4" ht="21">
       <c r="B372" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>4</v>
@@ -6255,10 +6360,10 @@
     </row>
     <row r="373" spans="2:4" ht="21">
       <c r="B373" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>4</v>
@@ -6266,10 +6371,10 @@
     </row>
     <row r="374" spans="2:4" ht="21">
       <c r="B374" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>4</v>
@@ -6277,10 +6382,10 @@
     </row>
     <row r="375" spans="2:4" ht="21">
       <c r="B375" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>4</v>
@@ -6288,10 +6393,10 @@
     </row>
     <row r="376" spans="2:4" ht="21">
       <c r="B376" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>4</v>
@@ -6299,10 +6404,10 @@
     </row>
     <row r="377" spans="2:4" ht="21">
       <c r="B377" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>4</v>
@@ -6310,10 +6415,10 @@
     </row>
     <row r="378" spans="2:4" ht="21">
       <c r="B378" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>4</v>
@@ -6321,10 +6426,10 @@
     </row>
     <row r="379" spans="2:4" ht="21">
       <c r="B379" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>4</v>
@@ -6332,10 +6437,10 @@
     </row>
     <row r="380" spans="2:4" ht="21">
       <c r="B380" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>4</v>
@@ -6343,10 +6448,10 @@
     </row>
     <row r="381" spans="2:4" ht="21">
       <c r="B381" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>4</v>
@@ -6354,10 +6459,10 @@
     </row>
     <row r="382" spans="2:4" ht="21">
       <c r="B382" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>4</v>
@@ -6365,10 +6470,10 @@
     </row>
     <row r="383" spans="2:4" ht="21">
       <c r="B383" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>4</v>
@@ -6376,10 +6481,10 @@
     </row>
     <row r="384" spans="2:4" ht="21">
       <c r="B384" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>4</v>
@@ -6387,10 +6492,10 @@
     </row>
     <row r="385" spans="2:4" ht="21">
       <c r="B385" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>4</v>
@@ -6398,10 +6503,10 @@
     </row>
     <row r="386" spans="2:4" ht="21">
       <c r="B386" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>4</v>
@@ -6409,10 +6514,10 @@
     </row>
     <row r="387" spans="2:4" ht="21">
       <c r="B387" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>4</v>
@@ -6420,10 +6525,10 @@
     </row>
     <row r="388" spans="2:4" ht="21">
       <c r="B388" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>4</v>
@@ -6431,10 +6536,10 @@
     </row>
     <row r="389" spans="2:4" ht="21">
       <c r="B389" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>4</v>
@@ -6442,10 +6547,10 @@
     </row>
     <row r="390" spans="2:4" ht="21">
       <c r="B390" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>4</v>
@@ -6453,10 +6558,10 @@
     </row>
     <row r="391" spans="2:4" ht="21">
       <c r="B391" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>4</v>
@@ -6464,10 +6569,10 @@
     </row>
     <row r="392" spans="2:4" ht="21">
       <c r="B392" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>4</v>
@@ -6475,10 +6580,10 @@
     </row>
     <row r="393" spans="2:4" ht="21">
       <c r="B393" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>4</v>
@@ -6486,10 +6591,10 @@
     </row>
     <row r="394" spans="2:4" ht="21">
       <c r="B394" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>4</v>
@@ -6497,10 +6602,10 @@
     </row>
     <row r="395" spans="2:4" ht="21">
       <c r="B395" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>4</v>
@@ -6508,10 +6613,10 @@
     </row>
     <row r="396" spans="2:4" ht="21">
       <c r="B396" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>4</v>
@@ -6519,10 +6624,10 @@
     </row>
     <row r="397" spans="2:4" ht="21">
       <c r="B397" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>4</v>
@@ -6530,10 +6635,10 @@
     </row>
     <row r="398" spans="2:4" ht="21">
       <c r="B398" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>4</v>
@@ -6541,10 +6646,10 @@
     </row>
     <row r="399" spans="2:4" ht="21">
       <c r="B399" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>4</v>
@@ -6560,10 +6665,10 @@
     </row>
     <row r="402" spans="2:4" ht="21">
       <c r="B402" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C402" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="C402" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="D402" s="4" t="s">
         <v>4</v>
@@ -6571,10 +6676,10 @@
     </row>
     <row r="403" spans="2:4" ht="21">
       <c r="B403" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>4</v>
@@ -6582,10 +6687,10 @@
     </row>
     <row r="404" spans="2:4" ht="21">
       <c r="B404" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>4</v>
@@ -6593,7 +6698,7 @@
     </row>
     <row r="405" spans="2:4" ht="21">
       <c r="B405" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>88</v>
@@ -6604,10 +6709,10 @@
     </row>
     <row r="406" spans="2:4" ht="21">
       <c r="B406" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>4</v>
@@ -6615,10 +6720,10 @@
     </row>
     <row r="407" spans="2:4" ht="21">
       <c r="B407" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>4</v>
@@ -6634,10 +6739,10 @@
     </row>
     <row r="410" spans="2:4" ht="21">
       <c r="B410" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C410" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="C410" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>4</v>
@@ -6645,10 +6750,10 @@
     </row>
     <row r="411" spans="2:4" ht="21">
       <c r="B411" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>4</v>
@@ -6656,10 +6761,10 @@
     </row>
     <row r="412" spans="2:4" ht="21">
       <c r="B412" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>4</v>
@@ -6667,10 +6772,10 @@
     </row>
     <row r="413" spans="2:4" ht="21">
       <c r="B413" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>4</v>
@@ -6678,10 +6783,10 @@
     </row>
     <row r="414" spans="2:4" ht="21">
       <c r="B414" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>4</v>
@@ -6689,10 +6794,10 @@
     </row>
     <row r="415" spans="2:4" ht="21">
       <c r="B415" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>4</v>
@@ -6700,10 +6805,10 @@
     </row>
     <row r="416" spans="2:4" ht="21">
       <c r="B416" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>4</v>
@@ -6711,10 +6816,10 @@
     </row>
     <row r="417" spans="2:4" ht="21">
       <c r="B417" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>4</v>
@@ -6722,10 +6827,10 @@
     </row>
     <row r="418" spans="2:4" ht="21">
       <c r="B418" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>4</v>
@@ -6733,10 +6838,10 @@
     </row>
     <row r="419" spans="2:4" ht="21">
       <c r="B419" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>4</v>
@@ -6744,10 +6849,10 @@
     </row>
     <row r="420" spans="2:4" ht="21">
       <c r="B420" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>4</v>
@@ -6755,10 +6860,10 @@
     </row>
     <row r="421" spans="2:4" ht="21">
       <c r="B421" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>4</v>
@@ -6766,10 +6871,10 @@
     </row>
     <row r="422" spans="2:4" ht="21">
       <c r="B422" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>4</v>
@@ -6777,10 +6882,10 @@
     </row>
     <row r="423" spans="2:4" ht="21">
       <c r="B423" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>4</v>
@@ -6788,10 +6893,10 @@
     </row>
     <row r="424" spans="2:4" ht="21">
       <c r="B424" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>4</v>
@@ -6799,10 +6904,10 @@
     </row>
     <row r="425" spans="2:4" ht="21">
       <c r="B425" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>4</v>
@@ -6810,10 +6915,10 @@
     </row>
     <row r="426" spans="2:4" ht="21">
       <c r="B426" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>4</v>
@@ -6821,10 +6926,10 @@
     </row>
     <row r="427" spans="2:4" ht="21">
       <c r="B427" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>4</v>
@@ -6832,10 +6937,10 @@
     </row>
     <row r="428" spans="2:4" ht="21">
       <c r="B428" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>4</v>
@@ -6843,10 +6948,10 @@
     </row>
     <row r="429" spans="2:4" ht="21">
       <c r="B429" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>4</v>
@@ -6854,10 +6959,10 @@
     </row>
     <row r="430" spans="2:4" ht="21">
       <c r="B430" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>4</v>
@@ -6865,10 +6970,10 @@
     </row>
     <row r="431" spans="2:4" ht="21">
       <c r="B431" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>4</v>
@@ -6876,10 +6981,10 @@
     </row>
     <row r="432" spans="2:4" ht="21">
       <c r="B432" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>4</v>
@@ -6887,10 +6992,10 @@
     </row>
     <row r="433" spans="2:4" ht="21">
       <c r="B433" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>4</v>
@@ -6898,10 +7003,10 @@
     </row>
     <row r="434" spans="2:4" ht="21">
       <c r="B434" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D434" s="4" t="s">
         <v>4</v>
@@ -6909,10 +7014,10 @@
     </row>
     <row r="435" spans="2:4" ht="21">
       <c r="B435" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>4</v>
@@ -6920,10 +7025,10 @@
     </row>
     <row r="436" spans="2:4" ht="21">
       <c r="B436" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>4</v>
@@ -6931,10 +7036,10 @@
     </row>
     <row r="437" spans="2:4" ht="21">
       <c r="B437" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>4</v>
@@ -6942,10 +7047,10 @@
     </row>
     <row r="438" spans="2:4" ht="21">
       <c r="B438" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>4</v>
@@ -6953,10 +7058,10 @@
     </row>
     <row r="439" spans="2:4" ht="21">
       <c r="B439" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>4</v>
@@ -6964,10 +7069,10 @@
     </row>
     <row r="440" spans="2:4" ht="21">
       <c r="B440" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>4</v>
@@ -6975,10 +7080,10 @@
     </row>
     <row r="441" spans="2:4" ht="21">
       <c r="B441" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>4</v>
@@ -6986,10 +7091,10 @@
     </row>
     <row r="442" spans="2:4" ht="21">
       <c r="B442" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>4</v>
@@ -6997,10 +7102,10 @@
     </row>
     <row r="443" spans="2:4" ht="21">
       <c r="B443" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>4</v>
@@ -7008,10 +7113,10 @@
     </row>
     <row r="444" spans="2:4" ht="21">
       <c r="B444" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>4</v>
@@ -7019,10 +7124,10 @@
     </row>
     <row r="445" spans="2:4" ht="21">
       <c r="B445" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>4</v>
@@ -7030,10 +7135,10 @@
     </row>
     <row r="446" spans="2:4" ht="21">
       <c r="B446" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>4</v>
@@ -7041,10 +7146,10 @@
     </row>
     <row r="447" spans="2:4" ht="21">
       <c r="B447" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>4</v>
@@ -7052,10 +7157,10 @@
     </row>
     <row r="448" spans="2:4" ht="21">
       <c r="B448" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>4</v>
@@ -7063,10 +7168,10 @@
     </row>
     <row r="449" spans="2:4" ht="21">
       <c r="B449" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>4</v>
@@ -7074,10 +7179,10 @@
     </row>
     <row r="450" spans="2:4" ht="21">
       <c r="B450" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D450" s="4" t="s">
         <v>4</v>
@@ -7085,10 +7190,10 @@
     </row>
     <row r="451" spans="2:4" ht="21">
       <c r="B451" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>4</v>
@@ -7096,10 +7201,10 @@
     </row>
     <row r="452" spans="2:4" ht="21">
       <c r="B452" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>4</v>
@@ -7107,10 +7212,10 @@
     </row>
     <row r="453" spans="2:4" ht="21">
       <c r="B453" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>4</v>
@@ -7118,10 +7223,10 @@
     </row>
     <row r="454" spans="2:4" ht="21">
       <c r="B454" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>4</v>
@@ -7129,10 +7234,10 @@
     </row>
     <row r="455" spans="2:4" ht="21">
       <c r="B455" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>4</v>
@@ -7140,10 +7245,10 @@
     </row>
     <row r="456" spans="2:4" ht="21">
       <c r="B456" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>4</v>
@@ -7151,10 +7256,10 @@
     </row>
     <row r="457" spans="2:4" ht="21">
       <c r="B457" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>4</v>
@@ -7162,10 +7267,10 @@
     </row>
     <row r="458" spans="2:4" ht="21">
       <c r="B458" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>4</v>
@@ -7173,10 +7278,10 @@
     </row>
     <row r="459" spans="2:4" ht="21">
       <c r="B459" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>4</v>
@@ -7184,10 +7289,10 @@
     </row>
     <row r="460" spans="2:4" ht="21">
       <c r="B460" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>4</v>
@@ -7195,10 +7300,10 @@
     </row>
     <row r="461" spans="2:4" ht="21">
       <c r="B461" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>4</v>
@@ -7206,10 +7311,10 @@
     </row>
     <row r="462" spans="2:4" ht="21">
       <c r="B462" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>4</v>
@@ -7217,10 +7322,10 @@
     </row>
     <row r="463" spans="2:4" ht="21">
       <c r="B463" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D463" s="4" t="s">
         <v>4</v>
@@ -7228,10 +7333,10 @@
     </row>
     <row r="464" spans="2:4" ht="21">
       <c r="B464" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>4</v>
@@ -7239,10 +7344,10 @@
     </row>
     <row r="465" spans="2:4" ht="21">
       <c r="B465" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>4</v>
@@ -7250,10 +7355,10 @@
     </row>
     <row r="466" spans="2:4" ht="21">
       <c r="B466" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>4</v>
@@ -7261,10 +7366,10 @@
     </row>
     <row r="467" spans="2:4" ht="21">
       <c r="B467" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>4</v>
@@ -7272,10 +7377,10 @@
     </row>
     <row r="468" spans="2:4" ht="21">
       <c r="B468" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>4</v>
@@ -7283,10 +7388,10 @@
     </row>
     <row r="469" spans="2:4" ht="21">
       <c r="B469" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D469" s="4" t="s">
         <v>4</v>
@@ -7303,10 +7408,10 @@
     </row>
     <row r="472" spans="2:4" ht="21">
       <c r="B472" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C472" s="6" t="s">
         <v>450</v>
-      </c>
-      <c r="C472" s="6" t="s">
-        <v>451</v>
       </c>
       <c r="D472" s="4" t="s">
         <v>4</v>
@@ -7314,10 +7419,10 @@
     </row>
     <row r="473" spans="2:4" ht="21">
       <c r="B473" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>4</v>
@@ -7325,10 +7430,10 @@
     </row>
     <row r="474" spans="2:4" ht="21">
       <c r="B474" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>4</v>
@@ -7336,10 +7441,10 @@
     </row>
     <row r="475" spans="2:4" ht="21">
       <c r="B475" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>4</v>
@@ -7347,10 +7452,10 @@
     </row>
     <row r="476" spans="2:4" ht="21">
       <c r="B476" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>4</v>
@@ -7358,10 +7463,10 @@
     </row>
     <row r="477" spans="2:4" ht="21">
       <c r="B477" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>4</v>
@@ -7369,10 +7474,10 @@
     </row>
     <row r="478" spans="2:4" ht="21">
       <c r="B478" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>4</v>
@@ -7380,10 +7485,10 @@
     </row>
     <row r="479" spans="2:4" ht="21">
       <c r="B479" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D479" s="4" t="s">
         <v>4</v>
@@ -7391,10 +7496,10 @@
     </row>
     <row r="480" spans="2:4" ht="21">
       <c r="B480" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>4</v>
@@ -7402,10 +7507,10 @@
     </row>
     <row r="481" spans="2:4" ht="21">
       <c r="B481" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D481" s="4" t="s">
         <v>4</v>
@@ -7602,7 +7707,7 @@
     <hyperlink ref="C205" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
     <hyperlink ref="C206" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
     <hyperlink ref="C207" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="C208" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="C208" r:id="rId190" display="Find distance between 2 nodes in a Binary tree" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
     <hyperlink ref="C209" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
     <hyperlink ref="C210" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
     <hyperlink ref="C211" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Data Structure and Algo\Love Babbar Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7154874-ED8B-4F3F-B751-33D5E27681D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170A7CA9-AF69-4C86-ADFB-6992EA5BCCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -4680,6 +4680,9 @@
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
+      <c r="A214">
+        <v>1</v>
+      </c>
       <c r="B214" s="5" t="s">
         <v>203</v>
       </c>
@@ -4687,10 +4690,13 @@
         <v>204</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="21">
+      <c r="A215">
+        <v>2</v>
+      </c>
       <c r="B215" s="5" t="s">
         <v>203</v>
       </c>
@@ -4698,10 +4704,13 @@
         <v>205</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="21">
+      <c r="A216">
+        <v>3</v>
+      </c>
       <c r="B216" s="5" t="s">
         <v>203</v>
       </c>
@@ -4709,10 +4718,13 @@
         <v>206</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="21">
+      <c r="A217">
+        <v>4</v>
+      </c>
       <c r="B217" s="5" t="s">
         <v>203</v>
       </c>
@@ -4720,10 +4732,13 @@
         <v>207</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="21">
+      <c r="A218">
+        <v>5</v>
+      </c>
       <c r="B218" s="5" t="s">
         <v>203</v>
       </c>
@@ -4731,10 +4746,13 @@
         <v>208</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="21">
+      <c r="A219">
+        <v>6</v>
+      </c>
       <c r="B219" s="5" t="s">
         <v>203</v>
       </c>
@@ -4742,10 +4760,13 @@
         <v>209</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="21">
+      <c r="A220">
+        <v>7</v>
+      </c>
       <c r="B220" s="5" t="s">
         <v>203</v>
       </c>
@@ -4753,10 +4774,13 @@
         <v>210</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="21">
+      <c r="A221">
+        <v>8</v>
+      </c>
       <c r="B221" s="5" t="s">
         <v>203</v>
       </c>
@@ -4764,10 +4788,13 @@
         <v>211</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="21">
+      <c r="A222">
+        <v>9</v>
+      </c>
       <c r="B222" s="5" t="s">
         <v>203</v>
       </c>
@@ -4775,10 +4802,13 @@
         <v>212</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="21">
+      <c r="A223">
+        <v>10</v>
+      </c>
       <c r="B223" s="5" t="s">
         <v>203</v>
       </c>
@@ -4786,10 +4816,13 @@
         <v>213</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="21">
+      <c r="A224">
+        <v>11</v>
+      </c>
       <c r="B224" s="5" t="s">
         <v>203</v>
       </c>
@@ -4797,10 +4830,13 @@
         <v>214</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="21">
+      <c r="A225">
+        <v>12</v>
+      </c>
       <c r="B225" s="5" t="s">
         <v>203</v>
       </c>
@@ -4808,10 +4844,13 @@
         <v>215</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="21">
+      <c r="A226">
+        <v>13</v>
+      </c>
       <c r="B226" s="5" t="s">
         <v>203</v>
       </c>
@@ -4819,10 +4858,13 @@
         <v>216</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="21">
+      <c r="A227">
+        <v>14</v>
+      </c>
       <c r="B227" s="5" t="s">
         <v>203</v>
       </c>
@@ -4830,10 +4872,13 @@
         <v>217</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="21">
+      <c r="A228">
+        <v>15</v>
+      </c>
       <c r="B228" s="5" t="s">
         <v>203</v>
       </c>
@@ -4841,10 +4886,13 @@
         <v>218</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="21">
+      <c r="A229">
+        <v>16</v>
+      </c>
       <c r="B229" s="5" t="s">
         <v>203</v>
       </c>
@@ -4852,10 +4900,13 @@
         <v>219</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="21">
+      <c r="A230">
+        <v>17</v>
+      </c>
       <c r="B230" s="5" t="s">
         <v>203</v>
       </c>
@@ -4863,10 +4914,13 @@
         <v>220</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="21">
+      <c r="A231">
+        <v>18</v>
+      </c>
       <c r="B231" s="5" t="s">
         <v>203</v>
       </c>
@@ -4874,10 +4928,13 @@
         <v>221</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="21">
+      <c r="A232">
+        <v>19</v>
+      </c>
       <c r="B232" s="5" t="s">
         <v>203</v>
       </c>
@@ -4885,10 +4942,13 @@
         <v>222</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="21">
+      <c r="A233">
+        <v>20</v>
+      </c>
       <c r="B233" s="5" t="s">
         <v>203</v>
       </c>
@@ -4899,7 +4959,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="2:4" ht="21">
+    <row r="234" spans="1:4" ht="21">
+      <c r="A234">
+        <v>21</v>
+      </c>
       <c r="B234" s="5" t="s">
         <v>203</v>
       </c>
@@ -4910,7 +4973,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:4" ht="21">
+    <row r="235" spans="1:4" ht="21">
+      <c r="A235">
+        <v>22</v>
+      </c>
       <c r="B235" s="5" t="s">
         <v>203</v>
       </c>
@@ -4921,15 +4987,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="2:4" ht="21">
+    <row r="236" spans="1:4" ht="21">
       <c r="C236" s="7"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="2:4" ht="21">
+    <row r="237" spans="1:4" ht="21">
       <c r="C237" s="7"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="2:4" ht="21">
+    <row r="238" spans="1:4" ht="21">
       <c r="B238" s="5" t="s">
         <v>226</v>
       </c>
@@ -4940,7 +5006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="2:4" ht="21">
+    <row r="239" spans="1:4" ht="21">
       <c r="B239" s="5" t="s">
         <v>226</v>
       </c>
@@ -4951,7 +5017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="2:4" ht="21">
+    <row r="240" spans="1:4" ht="21">
       <c r="B240" s="5" t="s">
         <v>226</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Data Structure and Algo\Love Babbar Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170A7CA9-AF69-4C86-ADFB-6992EA5BCCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C15B0B-E7E0-4A31-A2E9-DFFE07D24875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D272" sqref="D272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -4956,7 +4956,7 @@
         <v>223</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="21">
@@ -4970,7 +4970,7 @@
         <v>224</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="21">
@@ -4984,7 +4984,7 @@
         <v>225</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="21">
@@ -4996,6 +4996,9 @@
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
+      <c r="A238">
+        <v>1</v>
+      </c>
       <c r="B238" s="5" t="s">
         <v>226</v>
       </c>
@@ -5003,10 +5006,13 @@
         <v>227</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="21">
+      <c r="A239">
+        <v>2</v>
+      </c>
       <c r="B239" s="5" t="s">
         <v>226</v>
       </c>
@@ -5014,10 +5020,13 @@
         <v>228</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="21">
+      <c r="A240">
+        <v>3</v>
+      </c>
       <c r="B240" s="5" t="s">
         <v>226</v>
       </c>
@@ -5025,10 +5034,13 @@
         <v>229</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="21">
+      <c r="A241">
+        <v>4</v>
+      </c>
       <c r="B241" s="5" t="s">
         <v>226</v>
       </c>
@@ -5036,10 +5048,13 @@
         <v>230</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="21">
+      <c r="A242">
+        <v>5</v>
+      </c>
       <c r="B242" s="5" t="s">
         <v>226</v>
       </c>
@@ -5047,10 +5062,13 @@
         <v>231</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="21">
+      <c r="A243">
+        <v>6</v>
+      </c>
       <c r="B243" s="5" t="s">
         <v>226</v>
       </c>
@@ -5058,10 +5076,13 @@
         <v>232</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="21">
+      <c r="A244">
+        <v>7</v>
+      </c>
       <c r="B244" s="5" t="s">
         <v>226</v>
       </c>
@@ -5069,10 +5090,13 @@
         <v>233</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="21">
+      <c r="A245">
+        <v>8</v>
+      </c>
       <c r="B245" s="5" t="s">
         <v>226</v>
       </c>
@@ -5080,10 +5104,13 @@
         <v>234</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="21">
+      <c r="A246">
+        <v>9</v>
+      </c>
       <c r="B246" s="5" t="s">
         <v>226</v>
       </c>
@@ -5091,10 +5118,13 @@
         <v>235</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="21">
+      <c r="A247">
+        <v>10</v>
+      </c>
       <c r="B247" s="5" t="s">
         <v>226</v>
       </c>
@@ -5102,10 +5132,13 @@
         <v>236</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="21">
+      <c r="A248">
+        <v>11</v>
+      </c>
       <c r="B248" s="5" t="s">
         <v>226</v>
       </c>
@@ -5113,10 +5146,13 @@
         <v>237</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="21">
+      <c r="A249">
+        <v>12</v>
+      </c>
       <c r="B249" s="5" t="s">
         <v>226</v>
       </c>
@@ -5124,10 +5160,13 @@
         <v>238</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="21">
+      <c r="A250">
+        <v>13</v>
+      </c>
       <c r="B250" s="5" t="s">
         <v>226</v>
       </c>
@@ -5135,10 +5174,13 @@
         <v>239</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="21">
+      <c r="A251">
+        <v>14</v>
+      </c>
       <c r="B251" s="5" t="s">
         <v>226</v>
       </c>
@@ -5146,10 +5188,13 @@
         <v>240</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="21">
+      <c r="A252">
+        <v>15</v>
+      </c>
       <c r="B252" s="5" t="s">
         <v>226</v>
       </c>
@@ -5157,10 +5202,13 @@
         <v>241</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="21">
+      <c r="A253">
+        <v>16</v>
+      </c>
       <c r="B253" s="5" t="s">
         <v>226</v>
       </c>
@@ -5168,10 +5216,13 @@
         <v>242</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="21">
+      <c r="A254">
+        <v>17</v>
+      </c>
       <c r="B254" s="5" t="s">
         <v>226</v>
       </c>
@@ -5179,10 +5230,13 @@
         <v>243</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="21">
+      <c r="A255">
+        <v>18</v>
+      </c>
       <c r="B255" s="5" t="s">
         <v>226</v>
       </c>
@@ -5190,10 +5244,13 @@
         <v>244</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="21">
+      <c r="A256">
+        <v>19</v>
+      </c>
       <c r="B256" s="5" t="s">
         <v>226</v>
       </c>
@@ -5201,10 +5258,13 @@
         <v>245</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="21">
+      <c r="A257">
+        <v>20</v>
+      </c>
       <c r="B257" s="5" t="s">
         <v>226</v>
       </c>
@@ -5212,10 +5272,13 @@
         <v>246</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="21">
+      <c r="A258">
+        <v>21</v>
+      </c>
       <c r="B258" s="5" t="s">
         <v>226</v>
       </c>
@@ -5223,10 +5286,13 @@
         <v>247</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="259" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="21">
+      <c r="A259">
+        <v>22</v>
+      </c>
       <c r="B259" s="5" t="s">
         <v>226</v>
       </c>
@@ -5234,10 +5300,13 @@
         <v>248</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="21">
+      <c r="A260">
+        <v>23</v>
+      </c>
       <c r="B260" s="5" t="s">
         <v>226</v>
       </c>
@@ -5245,10 +5314,13 @@
         <v>249</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="21">
+      <c r="A261">
+        <v>24</v>
+      </c>
       <c r="B261" s="5" t="s">
         <v>226</v>
       </c>
@@ -5256,10 +5328,13 @@
         <v>250</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="21">
+      <c r="A262">
+        <v>25</v>
+      </c>
       <c r="B262" s="5" t="s">
         <v>226</v>
       </c>
@@ -5267,10 +5342,13 @@
         <v>251</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="21">
+      <c r="A263">
+        <v>26</v>
+      </c>
       <c r="B263" s="5" t="s">
         <v>226</v>
       </c>
@@ -5278,10 +5356,13 @@
         <v>252</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="21">
+      <c r="A264">
+        <v>27</v>
+      </c>
       <c r="B264" s="5" t="s">
         <v>226</v>
       </c>
@@ -5289,10 +5370,13 @@
         <v>253</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="21">
+      <c r="A265">
+        <v>28</v>
+      </c>
       <c r="B265" s="5" t="s">
         <v>226</v>
       </c>
@@ -5300,10 +5384,13 @@
         <v>254</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="21">
+      <c r="A266">
+        <v>29</v>
+      </c>
       <c r="B266" s="5" t="s">
         <v>226</v>
       </c>
@@ -5311,10 +5398,13 @@
         <v>255</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="21">
+      <c r="A267">
+        <v>30</v>
+      </c>
       <c r="B267" s="5" t="s">
         <v>226</v>
       </c>
@@ -5322,10 +5412,13 @@
         <v>256</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="21">
+      <c r="A268">
+        <v>31</v>
+      </c>
       <c r="B268" s="5" t="s">
         <v>226</v>
       </c>
@@ -5333,10 +5426,13 @@
         <v>257</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="21">
+      <c r="A269">
+        <v>32</v>
+      </c>
       <c r="B269" s="5" t="s">
         <v>226</v>
       </c>
@@ -5344,10 +5440,13 @@
         <v>258</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="21">
+      <c r="A270">
+        <v>33</v>
+      </c>
       <c r="B270" s="5" t="s">
         <v>226</v>
       </c>
@@ -5355,10 +5454,13 @@
         <v>259</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="21">
+      <c r="A271">
+        <v>34</v>
+      </c>
       <c r="B271" s="5" t="s">
         <v>226</v>
       </c>
@@ -5366,10 +5468,13 @@
         <v>86</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="21">
+      <c r="A272">
+        <v>35</v>
+      </c>
       <c r="B272" s="5" t="s">
         <v>226</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Data Structure and Algo\Love Babbar Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C15B0B-E7E0-4A31-A2E9-DFFE07D24875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAAB3DB-BD1B-41A9-BAA9-5182FE2E7EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t>inorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1863,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D272" sqref="D272"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C303" sqref="C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -5482,18 +5485,21 @@
         <v>260</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="21">
       <c r="C273" s="7"/>
       <c r="D273" s="4"/>
     </row>
-    <row r="274" spans="2:4" ht="21">
+    <row r="274" spans="1:4" ht="21">
       <c r="C274" s="7"/>
       <c r="D274" s="4"/>
     </row>
-    <row r="275" spans="2:4" ht="21">
+    <row r="275" spans="1:4" ht="21">
+      <c r="A275">
+        <v>1</v>
+      </c>
       <c r="B275" s="5" t="s">
         <v>261</v>
       </c>
@@ -5501,10 +5507,13 @@
         <v>262</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="21">
+      <c r="A276">
+        <v>2</v>
+      </c>
       <c r="B276" s="5" t="s">
         <v>261</v>
       </c>
@@ -5512,10 +5521,13 @@
         <v>263</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="21">
+      <c r="A277">
+        <v>3</v>
+      </c>
       <c r="B277" s="5" t="s">
         <v>261</v>
       </c>
@@ -5523,10 +5535,13 @@
         <v>264</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="21">
+      <c r="A278">
+        <v>4</v>
+      </c>
       <c r="B278" s="5" t="s">
         <v>261</v>
       </c>
@@ -5534,10 +5549,13 @@
         <v>265</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="279" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="21">
+      <c r="A279">
+        <v>5</v>
+      </c>
       <c r="B279" s="5" t="s">
         <v>261</v>
       </c>
@@ -5545,10 +5563,13 @@
         <v>266</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="21">
+      <c r="A280">
+        <v>6</v>
+      </c>
       <c r="B280" s="5" t="s">
         <v>261</v>
       </c>
@@ -5556,10 +5577,13 @@
         <v>267</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="21">
+      <c r="A281">
+        <v>7</v>
+      </c>
       <c r="B281" s="5" t="s">
         <v>261</v>
       </c>
@@ -5567,10 +5591,13 @@
         <v>268</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="21">
+      <c r="A282">
+        <v>8</v>
+      </c>
       <c r="B282" s="5" t="s">
         <v>261</v>
       </c>
@@ -5578,10 +5605,13 @@
         <v>269</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="21">
+      <c r="A283">
+        <v>9</v>
+      </c>
       <c r="B283" s="5" t="s">
         <v>261</v>
       </c>
@@ -5589,10 +5619,13 @@
         <v>270</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="284" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="21">
+      <c r="A284">
+        <v>10</v>
+      </c>
       <c r="B284" s="5" t="s">
         <v>261</v>
       </c>
@@ -5600,10 +5633,13 @@
         <v>271</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="21">
+      <c r="A285">
+        <v>11</v>
+      </c>
       <c r="B285" s="5" t="s">
         <v>261</v>
       </c>
@@ -5611,10 +5647,13 @@
         <v>272</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="286" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="21">
+      <c r="A286">
+        <v>12</v>
+      </c>
       <c r="B286" s="5" t="s">
         <v>261</v>
       </c>
@@ -5622,10 +5661,13 @@
         <v>273</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="21">
+      <c r="A287">
+        <v>13</v>
+      </c>
       <c r="B287" s="5" t="s">
         <v>261</v>
       </c>
@@ -5633,10 +5675,13 @@
         <v>274</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="21">
+      <c r="A288">
+        <v>14</v>
+      </c>
       <c r="B288" s="5" t="s">
         <v>261</v>
       </c>
@@ -5644,10 +5689,13 @@
         <v>275</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="21">
+      <c r="A289">
+        <v>15</v>
+      </c>
       <c r="B289" s="5" t="s">
         <v>261</v>
       </c>
@@ -5655,10 +5703,13 @@
         <v>276</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="290" spans="2:4" ht="21">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="21">
+      <c r="A290">
+        <v>16</v>
+      </c>
       <c r="B290" s="5" t="s">
         <v>261</v>
       </c>
@@ -5666,10 +5717,13 @@
         <v>277</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="291" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="21">
+      <c r="A291">
+        <v>17</v>
+      </c>
       <c r="B291" s="5" t="s">
         <v>261</v>
       </c>
@@ -5677,10 +5731,13 @@
         <v>278</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="292" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="21">
+      <c r="A292">
+        <v>18</v>
+      </c>
       <c r="B292" s="5" t="s">
         <v>261</v>
       </c>
@@ -5688,10 +5745,13 @@
         <v>279</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="293" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="21">
+      <c r="A293">
+        <v>19</v>
+      </c>
       <c r="B293" s="5" t="s">
         <v>261</v>
       </c>
@@ -5699,18 +5759,21 @@
         <v>280</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="294" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="21">
       <c r="C294" s="7"/>
       <c r="D294" s="4"/>
     </row>
-    <row r="295" spans="2:4" ht="21">
+    <row r="295" spans="1:4" ht="21">
       <c r="C295" s="7"/>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" spans="2:4" ht="21">
+    <row r="296" spans="1:4" ht="21">
+      <c r="A296">
+        <v>1</v>
+      </c>
       <c r="B296" s="5" t="s">
         <v>281</v>
       </c>
@@ -5721,7 +5784,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="2:4" ht="21">
+    <row r="297" spans="1:4" ht="21">
+      <c r="A297">
+        <v>2</v>
+      </c>
       <c r="B297" s="5" t="s">
         <v>281</v>
       </c>
@@ -5732,7 +5798,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="2:4" ht="21">
+    <row r="298" spans="1:4" ht="21">
+      <c r="A298">
+        <v>3</v>
+      </c>
       <c r="B298" s="5" t="s">
         <v>281</v>
       </c>
@@ -5743,7 +5812,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="2:4" ht="21">
+    <row r="299" spans="1:4" ht="21">
+      <c r="A299">
+        <v>4</v>
+      </c>
       <c r="B299" s="5" t="s">
         <v>281</v>
       </c>
@@ -5754,7 +5826,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="2:4" ht="21">
+    <row r="300" spans="1:4" ht="21">
+      <c r="A300">
+        <v>5</v>
+      </c>
       <c r="B300" s="5" t="s">
         <v>281</v>
       </c>
@@ -5765,7 +5840,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="2:4" ht="21">
+    <row r="301" spans="1:4" ht="21">
+      <c r="A301">
+        <v>6</v>
+      </c>
       <c r="B301" s="5" t="s">
         <v>281</v>
       </c>
@@ -5776,7 +5854,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="2:4" ht="21">
+    <row r="302" spans="1:4" ht="21">
+      <c r="A302">
+        <v>7</v>
+      </c>
       <c r="B302" s="5" t="s">
         <v>281</v>
       </c>
@@ -5787,7 +5868,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="2:4" ht="21">
+    <row r="303" spans="1:4" ht="21">
+      <c r="A303">
+        <v>8</v>
+      </c>
       <c r="B303" s="5" t="s">
         <v>281</v>
       </c>
@@ -5798,7 +5882,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="2:4" ht="21">
+    <row r="304" spans="1:4" ht="21">
+      <c r="A304">
+        <v>9</v>
+      </c>
       <c r="B304" s="5" t="s">
         <v>281</v>
       </c>
@@ -5809,7 +5896,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="2:4" ht="21">
+    <row r="305" spans="1:4" ht="21">
+      <c r="A305">
+        <v>10</v>
+      </c>
       <c r="B305" s="5" t="s">
         <v>281</v>
       </c>
@@ -5820,7 +5910,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="2:4" ht="21">
+    <row r="306" spans="1:4" ht="21">
+      <c r="A306">
+        <v>11</v>
+      </c>
       <c r="B306" s="5" t="s">
         <v>281</v>
       </c>
@@ -5831,7 +5924,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="2:4" ht="21">
+    <row r="307" spans="1:4" ht="21">
+      <c r="A307">
+        <v>12</v>
+      </c>
       <c r="B307" s="5" t="s">
         <v>281</v>
       </c>
@@ -5842,7 +5938,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="2:4" ht="21">
+    <row r="308" spans="1:4" ht="21">
+      <c r="A308">
+        <v>13</v>
+      </c>
       <c r="B308" s="5" t="s">
         <v>281</v>
       </c>
@@ -5853,7 +5952,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="2:4" ht="21">
+    <row r="309" spans="1:4" ht="21">
+      <c r="A309">
+        <v>14</v>
+      </c>
       <c r="B309" s="5" t="s">
         <v>281</v>
       </c>
@@ -5864,7 +5966,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="2:4" ht="21">
+    <row r="310" spans="1:4" ht="21">
+      <c r="A310">
+        <v>15</v>
+      </c>
       <c r="B310" s="5" t="s">
         <v>281</v>
       </c>
@@ -5875,7 +5980,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="2:4" ht="21">
+    <row r="311" spans="1:4" ht="21">
+      <c r="A311">
+        <v>16</v>
+      </c>
       <c r="B311" s="5" t="s">
         <v>281</v>
       </c>
@@ -5886,7 +5994,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="2:4" ht="21">
+    <row r="312" spans="1:4" ht="21">
+      <c r="A312">
+        <v>17</v>
+      </c>
       <c r="B312" s="5" t="s">
         <v>281</v>
       </c>
@@ -5897,7 +6008,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="2:4" ht="21">
+    <row r="313" spans="1:4" ht="21">
+      <c r="A313">
+        <v>18</v>
+      </c>
       <c r="B313" s="5" t="s">
         <v>281</v>
       </c>
@@ -5908,7 +6022,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="2:4" ht="21">
+    <row r="314" spans="1:4" ht="21">
+      <c r="A314">
+        <v>19</v>
+      </c>
       <c r="B314" s="5" t="s">
         <v>281</v>
       </c>
@@ -5919,7 +6036,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="2:4" ht="21">
+    <row r="315" spans="1:4" ht="21">
+      <c r="A315">
+        <v>20</v>
+      </c>
       <c r="B315" s="5" t="s">
         <v>281</v>
       </c>
@@ -5930,7 +6050,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="2:4" ht="21">
+    <row r="316" spans="1:4" ht="21">
+      <c r="A316">
+        <v>21</v>
+      </c>
       <c r="B316" s="5" t="s">
         <v>281</v>
       </c>
@@ -5941,7 +6064,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="2:4" ht="21">
+    <row r="317" spans="1:4" ht="21">
+      <c r="A317">
+        <v>22</v>
+      </c>
       <c r="B317" s="5" t="s">
         <v>281</v>
       </c>
@@ -5952,7 +6078,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="2:4" ht="21">
+    <row r="318" spans="1:4" ht="21">
+      <c r="A318">
+        <v>23</v>
+      </c>
       <c r="B318" s="5" t="s">
         <v>281</v>
       </c>
@@ -5963,7 +6092,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="2:4" ht="21">
+    <row r="319" spans="1:4" ht="21">
+      <c r="A319">
+        <v>24</v>
+      </c>
       <c r="B319" s="5" t="s">
         <v>281</v>
       </c>
@@ -5974,7 +6106,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="2:4" ht="21">
+    <row r="320" spans="1:4" ht="21">
+      <c r="A320">
+        <v>25</v>
+      </c>
       <c r="B320" s="5" t="s">
         <v>281</v>
       </c>
@@ -5985,7 +6120,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="2:4" ht="21">
+    <row r="321" spans="1:4" ht="21">
+      <c r="A321">
+        <v>26</v>
+      </c>
       <c r="B321" s="5" t="s">
         <v>281</v>
       </c>
@@ -5996,7 +6134,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="2:4" ht="21">
+    <row r="322" spans="1:4" ht="21">
+      <c r="A322">
+        <v>27</v>
+      </c>
       <c r="B322" s="5" t="s">
         <v>281</v>
       </c>
@@ -6007,7 +6148,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="2:4" ht="21">
+    <row r="323" spans="1:4" ht="21">
+      <c r="A323">
+        <v>28</v>
+      </c>
       <c r="B323" s="5" t="s">
         <v>281</v>
       </c>
@@ -6018,7 +6162,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="2:4" ht="21">
+    <row r="324" spans="1:4" ht="21">
+      <c r="A324">
+        <v>29</v>
+      </c>
       <c r="B324" s="5" t="s">
         <v>281</v>
       </c>
@@ -6029,7 +6176,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="2:4" ht="21">
+    <row r="325" spans="1:4" ht="21">
+      <c r="A325">
+        <v>30</v>
+      </c>
       <c r="B325" s="5" t="s">
         <v>281</v>
       </c>
@@ -6040,7 +6190,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="2:4" ht="21">
+    <row r="326" spans="1:4" ht="21">
+      <c r="A326">
+        <v>31</v>
+      </c>
       <c r="B326" s="5" t="s">
         <v>281</v>
       </c>
@@ -6051,7 +6204,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="2:4" ht="21">
+    <row r="327" spans="1:4" ht="21">
+      <c r="A327">
+        <v>32</v>
+      </c>
       <c r="B327" s="5" t="s">
         <v>281</v>
       </c>
@@ -6062,7 +6218,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="2:4" ht="21">
+    <row r="328" spans="1:4" ht="21">
+      <c r="A328">
+        <v>33</v>
+      </c>
       <c r="B328" s="5" t="s">
         <v>281</v>
       </c>
@@ -6073,7 +6232,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="2:4" ht="21">
+    <row r="329" spans="1:4" ht="21">
+      <c r="A329">
+        <v>34</v>
+      </c>
       <c r="B329" s="5" t="s">
         <v>281</v>
       </c>
@@ -6084,7 +6246,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="2:4" ht="21">
+    <row r="330" spans="1:4" ht="21">
+      <c r="A330">
+        <v>35</v>
+      </c>
       <c r="B330" s="5" t="s">
         <v>281</v>
       </c>
@@ -6095,7 +6260,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="2:4" ht="21">
+    <row r="331" spans="1:4" ht="21">
+      <c r="A331">
+        <v>36</v>
+      </c>
       <c r="B331" s="5" t="s">
         <v>281</v>
       </c>
@@ -6106,7 +6274,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="2:4" ht="21">
+    <row r="332" spans="1:4" ht="21">
+      <c r="A332">
+        <v>37</v>
+      </c>
       <c r="B332" s="5" t="s">
         <v>281</v>
       </c>
@@ -6117,7 +6288,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="2:4" ht="21">
+    <row r="333" spans="1:4" ht="21">
+      <c r="A333">
+        <v>38</v>
+      </c>
       <c r="B333" s="5" t="s">
         <v>281</v>
       </c>
@@ -6128,15 +6302,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="2:4" ht="21">
+    <row r="334" spans="1:4" ht="21">
       <c r="C334" s="7"/>
       <c r="D334" s="4"/>
     </row>
-    <row r="335" spans="2:4" ht="21">
+    <row r="335" spans="1:4" ht="21">
       <c r="C335" s="7"/>
       <c r="D335" s="4"/>
     </row>
-    <row r="336" spans="2:4" ht="21">
+    <row r="336" spans="1:4" ht="21">
       <c r="B336" s="8" t="s">
         <v>320</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Data Structure and Algo\Love Babbar Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAAB3DB-BD1B-41A9-BAA9-5182FE2E7EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1AB389-2383-44ED-9B75-15B87CC4800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C303" sqref="C303"/>
+    <sheetView tabSelected="1" topLeftCell="A323" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D332" sqref="D332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -5781,7 +5781,7 @@
         <v>282</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="21">
@@ -5795,7 +5795,7 @@
         <v>283</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="21">
@@ -5809,7 +5809,7 @@
         <v>284</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="21">
@@ -5823,7 +5823,7 @@
         <v>285</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="21">
@@ -5837,7 +5837,7 @@
         <v>286</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="21">
@@ -5851,7 +5851,7 @@
         <v>287</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="21">
@@ -5865,7 +5865,7 @@
         <v>288</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="21">
@@ -5879,7 +5879,7 @@
         <v>289</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="21">
@@ -5893,7 +5893,7 @@
         <v>290</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="21">
@@ -5907,7 +5907,7 @@
         <v>291</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="21">
@@ -5921,7 +5921,7 @@
         <v>292</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="21">
@@ -5935,7 +5935,7 @@
         <v>293</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="21">
@@ -5949,7 +5949,7 @@
         <v>294</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="21">
@@ -5963,7 +5963,7 @@
         <v>295</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="21">
@@ -5977,7 +5977,7 @@
         <v>296</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="21">
@@ -5991,7 +5991,7 @@
         <v>297</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="21">
@@ -6005,7 +6005,7 @@
         <v>298</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="21">
@@ -6019,7 +6019,7 @@
         <v>299</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="21">
@@ -6033,7 +6033,7 @@
         <v>300</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="21">
@@ -6047,7 +6047,7 @@
         <v>301</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="21">
@@ -6061,7 +6061,7 @@
         <v>302</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="21">
@@ -6075,7 +6075,7 @@
         <v>303</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="21">
@@ -6089,7 +6089,7 @@
         <v>304</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="21">
@@ -6103,7 +6103,7 @@
         <v>305</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="21">
@@ -6117,7 +6117,7 @@
         <v>306</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="21">
@@ -6131,7 +6131,7 @@
         <v>307</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="21">
@@ -6145,7 +6145,7 @@
         <v>308</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="21">
@@ -6159,7 +6159,7 @@
         <v>309</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="21">
@@ -6173,7 +6173,7 @@
         <v>310</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="21">
@@ -6187,7 +6187,7 @@
         <v>311</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="21">
@@ -6201,7 +6201,7 @@
         <v>312</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="21">
@@ -6215,7 +6215,7 @@
         <v>313</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="21">
@@ -6229,7 +6229,7 @@
         <v>314</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="21">
@@ -6243,7 +6243,7 @@
         <v>315</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="21">
@@ -6257,7 +6257,7 @@
         <v>316</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="21">
@@ -6271,7 +6271,7 @@
         <v>317</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Data Structure and Algo\Love Babbar Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1AB389-2383-44ED-9B75-15B87CC4800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E007DC57-4576-4323-B1A3-0489816AE75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D332" sqref="D332"/>
+    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D353" sqref="D353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -6285,7 +6285,7 @@
         <v>318</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="21">
@@ -6299,7 +6299,7 @@
         <v>319</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="21">
@@ -6311,6 +6311,9 @@
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="1:4" ht="21">
+      <c r="A336">
+        <v>1</v>
+      </c>
       <c r="B336" s="8" t="s">
         <v>320</v>
       </c>
@@ -6318,10 +6321,13 @@
         <v>321</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="337" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="21">
+      <c r="A337">
+        <v>2</v>
+      </c>
       <c r="B337" s="8" t="s">
         <v>320</v>
       </c>
@@ -6329,10 +6335,13 @@
         <v>322</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="21">
+      <c r="A338">
+        <v>3</v>
+      </c>
       <c r="B338" s="8" t="s">
         <v>320</v>
       </c>
@@ -6340,10 +6349,13 @@
         <v>323</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="339" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="21">
+      <c r="A339">
+        <v>4</v>
+      </c>
       <c r="B339" s="8" t="s">
         <v>320</v>
       </c>
@@ -6351,10 +6363,13 @@
         <v>324</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="340" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="21">
+      <c r="A340">
+        <v>5</v>
+      </c>
       <c r="B340" s="8" t="s">
         <v>320</v>
       </c>
@@ -6362,10 +6377,13 @@
         <v>325</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="341" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="21">
+      <c r="A341">
+        <v>6</v>
+      </c>
       <c r="B341" s="8" t="s">
         <v>320</v>
       </c>
@@ -6373,10 +6391,13 @@
         <v>326</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="342" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="21">
+      <c r="A342">
+        <v>7</v>
+      </c>
       <c r="B342" s="8" t="s">
         <v>320</v>
       </c>
@@ -6384,10 +6405,13 @@
         <v>327</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="343" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="21">
+      <c r="A343">
+        <v>8</v>
+      </c>
       <c r="B343" s="8" t="s">
         <v>320</v>
       </c>
@@ -6395,10 +6419,13 @@
         <v>328</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="344" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="21">
+      <c r="A344">
+        <v>9</v>
+      </c>
       <c r="B344" s="8" t="s">
         <v>320</v>
       </c>
@@ -6406,10 +6433,13 @@
         <v>329</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="345" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="21">
+      <c r="A345">
+        <v>10</v>
+      </c>
       <c r="B345" s="8" t="s">
         <v>320</v>
       </c>
@@ -6417,10 +6447,13 @@
         <v>330</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="346" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="21">
+      <c r="A346">
+        <v>11</v>
+      </c>
       <c r="B346" s="8" t="s">
         <v>320</v>
       </c>
@@ -6428,10 +6461,13 @@
         <v>331</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="347" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="21">
+      <c r="A347">
+        <v>12</v>
+      </c>
       <c r="B347" s="8" t="s">
         <v>320</v>
       </c>
@@ -6439,10 +6475,13 @@
         <v>332</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="348" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="21">
+      <c r="A348">
+        <v>13</v>
+      </c>
       <c r="B348" s="8" t="s">
         <v>320</v>
       </c>
@@ -6450,10 +6489,13 @@
         <v>333</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="349" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="21">
+      <c r="A349">
+        <v>14</v>
+      </c>
       <c r="B349" s="8" t="s">
         <v>320</v>
       </c>
@@ -6461,10 +6503,13 @@
         <v>334</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="350" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="21">
+      <c r="A350">
+        <v>15</v>
+      </c>
       <c r="B350" s="8" t="s">
         <v>320</v>
       </c>
@@ -6472,10 +6517,13 @@
         <v>335</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="351" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="21">
+      <c r="A351">
+        <v>16</v>
+      </c>
       <c r="B351" s="8" t="s">
         <v>320</v>
       </c>
@@ -6483,10 +6531,13 @@
         <v>336</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="352" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="21">
+      <c r="A352">
+        <v>17</v>
+      </c>
       <c r="B352" s="8" t="s">
         <v>320</v>
       </c>
@@ -6494,10 +6545,13 @@
         <v>337</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="353" spans="2:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="21">
+      <c r="A353">
+        <v>18</v>
+      </c>
       <c r="B353" s="8" t="s">
         <v>320</v>
       </c>
@@ -6508,15 +6562,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="2:4" ht="21">
+    <row r="354" spans="1:4" ht="21">
       <c r="C354" s="7"/>
       <c r="D354" s="4"/>
     </row>
-    <row r="355" spans="2:4" ht="21">
+    <row r="355" spans="1:4" ht="21">
       <c r="C355" s="7"/>
       <c r="D355" s="4"/>
     </row>
-    <row r="356" spans="2:4" ht="21">
+    <row r="356" spans="1:4" ht="21">
       <c r="B356" s="8" t="s">
         <v>339</v>
       </c>
@@ -6527,7 +6581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="2:4" ht="21">
+    <row r="357" spans="1:4" ht="21">
       <c r="B357" s="8" t="s">
         <v>339</v>
       </c>
@@ -6538,7 +6592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="2:4" ht="21">
+    <row r="358" spans="1:4" ht="21">
       <c r="B358" s="8" t="s">
         <v>339</v>
       </c>
@@ -6549,7 +6603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="2:4" ht="21">
+    <row r="359" spans="1:4" ht="21">
       <c r="B359" s="8" t="s">
         <v>339</v>
       </c>
@@ -6560,7 +6614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="2:4" ht="21">
+    <row r="360" spans="1:4" ht="21">
       <c r="B360" s="8" t="s">
         <v>339</v>
       </c>
@@ -6571,7 +6625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="2:4" ht="21">
+    <row r="361" spans="1:4" ht="21">
       <c r="B361" s="8" t="s">
         <v>339</v>
       </c>
@@ -6582,7 +6636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="2:4" ht="21">
+    <row r="362" spans="1:4" ht="21">
       <c r="B362" s="8" t="s">
         <v>339</v>
       </c>
@@ -6593,7 +6647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="2:4" ht="21">
+    <row r="363" spans="1:4" ht="21">
       <c r="B363" s="8" t="s">
         <v>339</v>
       </c>
@@ -6604,7 +6658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="2:4" ht="21">
+    <row r="364" spans="1:4" ht="21">
       <c r="B364" s="8" t="s">
         <v>339</v>
       </c>
@@ -6615,7 +6669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="2:4" ht="21">
+    <row r="365" spans="1:4" ht="21">
       <c r="B365" s="8" t="s">
         <v>339</v>
       </c>
@@ -6626,7 +6680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="2:4" ht="21">
+    <row r="366" spans="1:4" ht="21">
       <c r="B366" s="8" t="s">
         <v>339</v>
       </c>
@@ -6637,7 +6691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="2:4" ht="21">
+    <row r="367" spans="1:4" ht="21">
       <c r="B367" s="8" t="s">
         <v>339</v>
       </c>
@@ -6648,7 +6702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="2:4" ht="21">
+    <row r="368" spans="1:4" ht="21">
       <c r="B368" s="8" t="s">
         <v>339</v>
       </c>
